--- a/Base_Membros_Tratada.xlsx
+++ b/Base_Membros_Tratada.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H254"/>
+  <dimension ref="A1:G254"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,15 +461,10 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Engajamento_PIGS</t>
+          <t>Score_Desempenho</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Score_Desempenho</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Status_Membro</t>
         </is>
@@ -490,18 +485,13 @@
       <c r="D2" t="n">
         <v>8.1</v>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>90%</t>
-        </is>
+      <c r="E2" t="n">
+        <v>0.9</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="G2" t="n">
         <v>7.8</v>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Em Destaque</t>
         </is>
@@ -522,18 +512,13 @@
       <c r="D3" t="n">
         <v>7.5</v>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>75%</t>
-        </is>
+      <c r="E3" t="n">
+        <v>0.75</v>
       </c>
       <c r="F3" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="G3" t="n">
         <v>7.85</v>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Padrão</t>
         </is>
@@ -554,18 +539,13 @@
       <c r="D4" t="n">
         <v>9.5</v>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
+      <c r="E4" t="n">
+        <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" t="n">
         <v>9.300000000000001</v>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>Em Destaque</t>
         </is>
@@ -586,18 +566,13 @@
       <c r="D5" t="n">
         <v>7</v>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>80%</t>
-        </is>
+      <c r="E5" t="n">
+        <v>0.8</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="G5" t="n">
         <v>6.75</v>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>Padrão</t>
         </is>
@@ -618,14 +593,13 @@
       <c r="D6" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="E6" t="inlineStr"/>
+      <c r="E6" t="n">
+        <v>0.8156118143459915</v>
+      </c>
       <c r="F6" t="n">
-        <v>0.8156118143459915</v>
-      </c>
-      <c r="G6" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>Em Destaque</t>
         </is>
@@ -646,18 +620,13 @@
       <c r="D7" t="n">
         <v>6.5</v>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>70%</t>
-        </is>
+      <c r="E7" t="n">
+        <v>0.7</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="G7" t="n">
         <v>7.25</v>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>Padrão</t>
         </is>
@@ -678,18 +647,13 @@
       <c r="D8" t="n">
         <v>6</v>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>50%</t>
-        </is>
+      <c r="E8" t="n">
+        <v>0.5</v>
       </c>
       <c r="F8" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G8" t="n">
         <v>5.75</v>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>Padrão</t>
         </is>
@@ -710,18 +674,13 @@
       <c r="D9" t="n">
         <v>9.199999999999999</v>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>95%</t>
-        </is>
+      <c r="E9" t="n">
+        <v>0.95</v>
       </c>
       <c r="F9" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="G9" t="n">
         <v>9.1</v>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>Em Destaque</t>
         </is>
@@ -742,18 +701,13 @@
       <c r="D10" t="n">
         <v>8.5</v>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>85%</t>
-        </is>
+      <c r="E10" t="n">
+        <v>0.85</v>
       </c>
       <c r="F10" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="G10" t="n">
         <v>8.65</v>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>Em Destaque</t>
         </is>
@@ -774,18 +728,13 @@
       <c r="D11" t="n">
         <v>7.3</v>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>90%</t>
-        </is>
+      <c r="E11" t="n">
+        <v>0.9</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="G11" t="n">
         <v>7.199999999999999</v>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>Em Destaque</t>
         </is>
@@ -806,18 +755,13 @@
       <c r="D12" t="n">
         <v>7.8</v>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>75%</t>
-        </is>
+      <c r="E12" t="n">
+        <v>0.75</v>
       </c>
       <c r="F12" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="G12" t="n">
         <v>7.35</v>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>Padrão</t>
         </is>
@@ -838,18 +782,13 @@
       <c r="D13" t="n">
         <v>7.7</v>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>80%</t>
-        </is>
+      <c r="E13" t="n">
+        <v>0.8</v>
       </c>
       <c r="F13" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="G13" t="n">
         <v>7.5</v>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>Em Destaque</t>
         </is>
@@ -870,14 +809,13 @@
       <c r="D14" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="E14" t="inlineStr"/>
+      <c r="E14" t="n">
+        <v>0.8156118143459915</v>
+      </c>
       <c r="F14" t="n">
-        <v>0.8156118143459915</v>
-      </c>
-      <c r="G14" t="n">
         <v>8.031726907630521</v>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>Em Destaque</t>
         </is>
@@ -898,18 +836,13 @@
       <c r="D15" t="n">
         <v>9</v>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
+      <c r="E15" t="n">
+        <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
-      </c>
-      <c r="G15" t="n">
         <v>9.25</v>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>Em Destaque</t>
         </is>
@@ -930,18 +863,13 @@
       <c r="D16" t="n">
         <v>7.1</v>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>85%</t>
-        </is>
+      <c r="E16" t="n">
+        <v>0.85</v>
       </c>
       <c r="F16" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="G16" t="n">
         <v>6.949999999999999</v>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>Padrão</t>
         </is>
@@ -962,18 +890,13 @@
       <c r="D17" t="n">
         <v>8.5</v>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>90%</t>
-        </is>
+      <c r="E17" t="n">
+        <v>0.9</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="G17" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>Em Destaque</t>
         </is>
@@ -994,18 +917,13 @@
       <c r="D18" t="n">
         <v>7</v>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>70%</t>
-        </is>
+      <c r="E18" t="n">
+        <v>0.7</v>
       </c>
       <c r="F18" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="G18" t="n">
         <v>7.35</v>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>Padrão</t>
         </is>
@@ -1026,18 +944,13 @@
       <c r="D19" t="n">
         <v>6.2</v>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>50%</t>
-        </is>
+      <c r="E19" t="n">
+        <v>0.5</v>
       </c>
       <c r="F19" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G19" t="n">
         <v>6.1</v>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>Padrão</t>
         </is>
@@ -1058,18 +971,13 @@
       <c r="D20" t="n">
         <v>9</v>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>95%</t>
-        </is>
+      <c r="E20" t="n">
+        <v>0.95</v>
       </c>
       <c r="F20" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="G20" t="n">
         <v>8.949999999999999</v>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>Em Destaque</t>
         </is>
@@ -1090,18 +998,13 @@
       <c r="D21" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>85%</t>
-        </is>
+      <c r="E21" t="n">
+        <v>0.85</v>
       </c>
       <c r="F21" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="G21" t="n">
         <v>9</v>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>Em Destaque</t>
         </is>
@@ -1122,18 +1025,13 @@
       <c r="D22" t="n">
         <v>7.6</v>
       </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>90%</t>
-        </is>
+      <c r="E22" t="n">
+        <v>0.9</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="G22" t="n">
         <v>7.5</v>
       </c>
-      <c r="H22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>Em Destaque</t>
         </is>
@@ -1154,18 +1052,13 @@
       <c r="D23" t="n">
         <v>8</v>
       </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>75%</t>
-        </is>
+      <c r="E23" t="n">
+        <v>0.75</v>
       </c>
       <c r="F23" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="G23" t="n">
         <v>7.5</v>
       </c>
-      <c r="H23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>Padrão</t>
         </is>
@@ -1186,18 +1079,13 @@
       <c r="D24" t="n">
         <v>7.9</v>
       </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>80%</t>
-        </is>
+      <c r="E24" t="n">
+        <v>0.8</v>
       </c>
       <c r="F24" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="G24" t="n">
         <v>7.75</v>
       </c>
-      <c r="H24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>Em Destaque</t>
         </is>
@@ -1218,18 +1106,13 @@
       <c r="D25" t="n">
         <v>7.946613545816733</v>
       </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>75%</t>
-        </is>
+      <c r="E25" t="n">
+        <v>0.75</v>
       </c>
       <c r="F25" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="G25" t="n">
         <v>8.123306772908368</v>
       </c>
-      <c r="H25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>Padrão</t>
         </is>
@@ -1250,18 +1133,13 @@
       <c r="D26" t="n">
         <v>9.300000000000001</v>
       </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
+      <c r="E26" t="n">
+        <v>1</v>
       </c>
       <c r="F26" t="n">
-        <v>1</v>
-      </c>
-      <c r="G26" t="n">
         <v>9.300000000000001</v>
       </c>
-      <c r="H26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>Em Destaque</t>
         </is>
@@ -1282,18 +1160,13 @@
       <c r="D27" t="n">
         <v>7.2</v>
       </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>85%</t>
-        </is>
+      <c r="E27" t="n">
+        <v>0.85</v>
       </c>
       <c r="F27" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="G27" t="n">
         <v>6.95</v>
       </c>
-      <c r="H27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>Padrão</t>
         </is>
@@ -1314,18 +1187,13 @@
       <c r="D28" t="n">
         <v>8.699999999999999</v>
       </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>90%</t>
-        </is>
+      <c r="E28" t="n">
+        <v>0.9</v>
       </c>
       <c r="F28" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="G28" t="n">
         <v>8.550000000000001</v>
       </c>
-      <c r="H28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>Em Destaque</t>
         </is>
@@ -1346,18 +1214,13 @@
       <c r="D29" t="n">
         <v>7.3</v>
       </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>70%</t>
-        </is>
+      <c r="E29" t="n">
+        <v>0.7</v>
       </c>
       <c r="F29" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="G29" t="n">
         <v>7.6</v>
       </c>
-      <c r="H29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>Padrão</t>
         </is>
@@ -1378,14 +1241,13 @@
       <c r="D30" t="n">
         <v>6.4</v>
       </c>
-      <c r="E30" t="inlineStr"/>
+      <c r="E30" t="n">
+        <v>0.8156118143459915</v>
+      </c>
       <c r="F30" t="n">
-        <v>0.8156118143459915</v>
-      </c>
-      <c r="G30" t="n">
         <v>6.300000000000001</v>
       </c>
-      <c r="H30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>Padrão</t>
         </is>
@@ -1406,18 +1268,13 @@
       <c r="D31" t="n">
         <v>9.1</v>
       </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>95%</t>
-        </is>
+      <c r="E31" t="n">
+        <v>0.95</v>
       </c>
       <c r="F31" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="G31" t="n">
         <v>8.949999999999999</v>
       </c>
-      <c r="H31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>Em Destaque</t>
         </is>
@@ -1438,18 +1295,13 @@
       <c r="D32" t="n">
         <v>8.699999999999999</v>
       </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>85%</t>
-        </is>
+      <c r="E32" t="n">
+        <v>0.85</v>
       </c>
       <c r="F32" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="G32" t="n">
         <v>8.85</v>
       </c>
-      <c r="H32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>Em Destaque</t>
         </is>
@@ -1470,18 +1322,13 @@
       <c r="D33" t="n">
         <v>7.5</v>
       </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>90%</t>
-        </is>
+      <c r="E33" t="n">
+        <v>0.9</v>
       </c>
       <c r="F33" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="G33" t="n">
         <v>7.35</v>
       </c>
-      <c r="H33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>Em Destaque</t>
         </is>
@@ -1502,18 +1349,13 @@
       <c r="D34" t="n">
         <v>8.1</v>
       </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>75%</t>
-        </is>
+      <c r="E34" t="n">
+        <v>0.75</v>
       </c>
       <c r="F34" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="G34" t="n">
         <v>7.6</v>
       </c>
-      <c r="H34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>Padrão</t>
         </is>
@@ -1534,18 +1376,13 @@
       <c r="D35" t="n">
         <v>8</v>
       </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>90%</t>
-        </is>
+      <c r="E35" t="n">
+        <v>0.9</v>
       </c>
       <c r="F35" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="G35" t="n">
         <v>8.25</v>
       </c>
-      <c r="H35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>Em Destaque</t>
         </is>
@@ -1566,18 +1403,13 @@
       <c r="D36" t="n">
         <v>7.2</v>
       </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>75%</t>
-        </is>
+      <c r="E36" t="n">
+        <v>0.75</v>
       </c>
       <c r="F36" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="G36" t="n">
         <v>7.5</v>
       </c>
-      <c r="H36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>Padrão</t>
         </is>
@@ -1598,18 +1430,13 @@
       <c r="D37" t="n">
         <v>9.699999999999999</v>
       </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
+      <c r="E37" t="n">
+        <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>1</v>
-      </c>
-      <c r="G37" t="n">
         <v>9.75</v>
       </c>
-      <c r="H37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>Em Destaque</t>
         </is>
@@ -1630,18 +1457,13 @@
       <c r="D38" t="n">
         <v>6.8</v>
       </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>80%</t>
-        </is>
+      <c r="E38" t="n">
+        <v>0.8</v>
       </c>
       <c r="F38" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="G38" t="n">
         <v>6.55</v>
       </c>
-      <c r="H38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>Padrão</t>
         </is>
@@ -1662,14 +1484,13 @@
       <c r="D39" t="n">
         <v>8.9</v>
       </c>
-      <c r="E39" t="inlineStr"/>
+      <c r="E39" t="n">
+        <v>0.8156118143459915</v>
+      </c>
       <c r="F39" t="n">
-        <v>0.8156118143459915</v>
-      </c>
-      <c r="G39" t="n">
         <v>8.449999999999999</v>
       </c>
-      <c r="H39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>Em Destaque</t>
         </is>
@@ -1690,18 +1511,13 @@
       <c r="D40" t="n">
         <v>6.7</v>
       </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>70%</t>
-        </is>
+      <c r="E40" t="n">
+        <v>0.7</v>
       </c>
       <c r="F40" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="G40" t="n">
         <v>7.449999999999999</v>
       </c>
-      <c r="H40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>Padrão</t>
         </is>
@@ -1722,18 +1538,13 @@
       <c r="D41" t="n">
         <v>6.1</v>
       </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>50%</t>
-        </is>
+      <c r="E41" t="n">
+        <v>0.5</v>
       </c>
       <c r="F41" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G41" t="n">
         <v>5.949999999999999</v>
       </c>
-      <c r="H41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>Padrão</t>
         </is>
@@ -1754,18 +1565,13 @@
       <c r="D42" t="n">
         <v>9.300000000000001</v>
       </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>95%</t>
-        </is>
+      <c r="E42" t="n">
+        <v>0.95</v>
       </c>
       <c r="F42" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="G42" t="n">
         <v>9.25</v>
       </c>
-      <c r="H42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>Em Destaque</t>
         </is>
@@ -1786,18 +1592,13 @@
       <c r="D43" t="n">
         <v>8.6</v>
       </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>85%</t>
-        </is>
+      <c r="E43" t="n">
+        <v>0.85</v>
       </c>
       <c r="F43" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="G43" t="n">
         <v>8.649999999999999</v>
       </c>
-      <c r="H43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>Em Destaque</t>
         </is>
@@ -1818,18 +1619,13 @@
       <c r="D44" t="n">
         <v>7.4</v>
       </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>90%</t>
-        </is>
+      <c r="E44" t="n">
+        <v>0.9</v>
       </c>
       <c r="F44" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="G44" t="n">
         <v>7.5</v>
       </c>
-      <c r="H44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>Em Destaque</t>
         </is>
@@ -1850,18 +1646,13 @@
       <c r="D45" t="n">
         <v>7.9</v>
       </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>75%</t>
-        </is>
+      <c r="E45" t="n">
+        <v>0.75</v>
       </c>
       <c r="F45" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="G45" t="n">
         <v>7.6</v>
       </c>
-      <c r="H45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>Padrão</t>
         </is>
@@ -1882,18 +1673,13 @@
       <c r="D46" t="n">
         <v>7.5</v>
       </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>80%</t>
-        </is>
+      <c r="E46" t="n">
+        <v>0.8</v>
       </c>
       <c r="F46" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="G46" t="n">
         <v>7.3</v>
       </c>
-      <c r="H46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>Em Destaque</t>
         </is>
@@ -1914,18 +1700,13 @@
       <c r="D47" t="n">
         <v>7.946613545816733</v>
       </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>75%</t>
-        </is>
+      <c r="E47" t="n">
+        <v>0.75</v>
       </c>
       <c r="F47" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="G47" t="n">
         <v>8.173306772908367</v>
       </c>
-      <c r="H47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>Padrão</t>
         </is>
@@ -1946,18 +1727,13 @@
       <c r="D48" t="n">
         <v>9.1</v>
       </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
+      <c r="E48" t="n">
+        <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>1</v>
-      </c>
-      <c r="G48" t="n">
         <v>9.35</v>
       </c>
-      <c r="H48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>Em Destaque</t>
         </is>
@@ -1978,18 +1754,13 @@
       <c r="D49" t="n">
         <v>7</v>
       </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>85%</t>
-        </is>
+      <c r="E49" t="n">
+        <v>0.85</v>
       </c>
       <c r="F49" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="G49" t="n">
         <v>6.95</v>
       </c>
-      <c r="H49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>Padrão</t>
         </is>
@@ -2010,18 +1781,13 @@
       <c r="D50" t="n">
         <v>8.6</v>
       </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>90%</t>
-        </is>
+      <c r="E50" t="n">
+        <v>0.9</v>
       </c>
       <c r="F50" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="G50" t="n">
         <v>8.449999999999999</v>
       </c>
-      <c r="H50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>Em Destaque</t>
         </is>
@@ -2042,18 +1808,13 @@
       <c r="D51" t="n">
         <v>7.1</v>
       </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>70%</t>
-        </is>
+      <c r="E51" t="n">
+        <v>0.7</v>
       </c>
       <c r="F51" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="G51" t="n">
         <v>7.449999999999999</v>
       </c>
-      <c r="H51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>Padrão</t>
         </is>
@@ -2074,14 +1835,13 @@
       <c r="D52" t="n">
         <v>6.3</v>
       </c>
-      <c r="E52" t="inlineStr"/>
+      <c r="E52" t="n">
+        <v>0.8156118143459915</v>
+      </c>
       <c r="F52" t="n">
-        <v>0.8156118143459915</v>
-      </c>
-      <c r="G52" t="n">
         <v>6.199999999999999</v>
       </c>
-      <c r="H52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>Padrão</t>
         </is>
@@ -2102,18 +1862,13 @@
       <c r="D53" t="n">
         <v>9.199999999999999</v>
       </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>95%</t>
-        </is>
+      <c r="E53" t="n">
+        <v>0.95</v>
       </c>
       <c r="F53" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="G53" t="n">
         <v>8.949999999999999</v>
       </c>
-      <c r="H53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>Em Destaque</t>
         </is>
@@ -2134,18 +1889,13 @@
       <c r="D54" t="n">
         <v>8.9</v>
       </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>85%</t>
-        </is>
+      <c r="E54" t="n">
+        <v>0.85</v>
       </c>
       <c r="F54" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="G54" t="n">
         <v>9</v>
       </c>
-      <c r="H54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>Em Destaque</t>
         </is>
@@ -2166,18 +1916,13 @@
       <c r="D55" t="n">
         <v>7.7</v>
       </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>90%</t>
-        </is>
+      <c r="E55" t="n">
+        <v>0.9</v>
       </c>
       <c r="F55" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="G55" t="n">
         <v>7.6</v>
       </c>
-      <c r="H55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>Em Destaque</t>
         </is>
@@ -2198,18 +1943,13 @@
       <c r="D56" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>75%</t>
-        </is>
+      <c r="E56" t="n">
+        <v>0.75</v>
       </c>
       <c r="F56" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="G56" t="n">
         <v>7.699999999999999</v>
       </c>
-      <c r="H56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>Padrão</t>
         </is>
@@ -2230,18 +1970,13 @@
       <c r="D57" t="n">
         <v>7.8</v>
       </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>80%</t>
-        </is>
+      <c r="E57" t="n">
+        <v>0.8</v>
       </c>
       <c r="F57" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="G57" t="n">
         <v>7.6</v>
       </c>
-      <c r="H57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>Em Destaque</t>
         </is>
@@ -2262,18 +1997,13 @@
       <c r="D58" t="n">
         <v>7.4</v>
       </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>75%</t>
-        </is>
+      <c r="E58" t="n">
+        <v>0.75</v>
       </c>
       <c r="F58" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="G58" t="n">
         <v>7.75</v>
       </c>
-      <c r="H58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>Padrão</t>
         </is>
@@ -2294,18 +2024,13 @@
       <c r="D59" t="n">
         <v>9.199999999999999</v>
       </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
+      <c r="E59" t="n">
+        <v>1</v>
       </c>
       <c r="F59" t="n">
-        <v>1</v>
-      </c>
-      <c r="G59" t="n">
         <v>9.300000000000001</v>
       </c>
-      <c r="H59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>Em Destaque</t>
         </is>
@@ -2326,18 +2051,13 @@
       <c r="D60" t="n">
         <v>7.3</v>
       </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>85%</t>
-        </is>
+      <c r="E60" t="n">
+        <v>0.85</v>
       </c>
       <c r="F60" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="G60" t="n">
         <v>6.949999999999999</v>
       </c>
-      <c r="H60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>Padrão</t>
         </is>
@@ -2358,18 +2078,13 @@
       <c r="D61" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>90%</t>
-        </is>
+      <c r="E61" t="n">
+        <v>0.9</v>
       </c>
       <c r="F61" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="G61" t="n">
         <v>8.5</v>
       </c>
-      <c r="H61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>Em Destaque</t>
         </is>
@@ -2390,18 +2105,13 @@
       <c r="D62" t="n">
         <v>6.8</v>
       </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>70%</t>
-        </is>
+      <c r="E62" t="n">
+        <v>0.7</v>
       </c>
       <c r="F62" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="G62" t="n">
         <v>7.449999999999999</v>
       </c>
-      <c r="H62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>Padrão</t>
         </is>
@@ -2422,18 +2132,13 @@
       <c r="D63" t="n">
         <v>6.5</v>
       </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>50%</t>
-        </is>
+      <c r="E63" t="n">
+        <v>0.5</v>
       </c>
       <c r="F63" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G63" t="n">
         <v>6.2</v>
       </c>
-      <c r="H63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>Padrão</t>
         </is>
@@ -2454,18 +2159,13 @@
       <c r="D64" t="n">
         <v>9.4</v>
       </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>95%</t>
-        </is>
+      <c r="E64" t="n">
+        <v>0.95</v>
       </c>
       <c r="F64" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="G64" t="n">
         <v>9.25</v>
       </c>
-      <c r="H64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>Em Destaque</t>
         </is>
@@ -2486,18 +2186,13 @@
       <c r="D65" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>85%</t>
-        </is>
+      <c r="E65" t="n">
+        <v>0.85</v>
       </c>
       <c r="F65" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="G65" t="n">
         <v>8.850000000000001</v>
       </c>
-      <c r="H65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>Em Destaque</t>
         </is>
@@ -2518,18 +2213,13 @@
       <c r="D66" t="n">
         <v>7.8</v>
       </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>90%</t>
-        </is>
+      <c r="E66" t="n">
+        <v>0.9</v>
       </c>
       <c r="F66" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="G66" t="n">
         <v>7.55</v>
       </c>
-      <c r="H66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>Em Destaque</t>
         </is>
@@ -2550,18 +2240,13 @@
       <c r="D67" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>75%</t>
-        </is>
+      <c r="E67" t="n">
+        <v>0.75</v>
       </c>
       <c r="F67" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="G67" t="n">
         <v>7.850000000000001</v>
       </c>
-      <c r="H67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>Padrão</t>
         </is>
@@ -2582,18 +2267,13 @@
       <c r="D68" t="n">
         <v>7.6</v>
       </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>80%</t>
-        </is>
+      <c r="E68" t="n">
+        <v>0.8</v>
       </c>
       <c r="F68" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="G68" t="n">
         <v>7.4</v>
       </c>
-      <c r="H68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>Em Destaque</t>
         </is>
@@ -2614,18 +2294,13 @@
       <c r="D69" t="n">
         <v>7.6</v>
       </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>75%</t>
-        </is>
+      <c r="E69" t="n">
+        <v>0.75</v>
       </c>
       <c r="F69" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="G69" t="n">
         <v>8.050000000000001</v>
       </c>
-      <c r="H69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>Padrão</t>
         </is>
@@ -2646,18 +2321,13 @@
       <c r="D70" t="n">
         <v>9.4</v>
       </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
+      <c r="E70" t="n">
+        <v>1</v>
       </c>
       <c r="F70" t="n">
-        <v>1</v>
-      </c>
-      <c r="G70" t="n">
         <v>9.550000000000001</v>
       </c>
-      <c r="H70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>Em Destaque</t>
         </is>
@@ -2678,18 +2348,13 @@
       <c r="D71" t="n">
         <v>6.9</v>
       </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>80%</t>
-        </is>
+      <c r="E71" t="n">
+        <v>0.8</v>
       </c>
       <c r="F71" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="G71" t="n">
         <v>6.65</v>
       </c>
-      <c r="H71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>Padrão</t>
         </is>
@@ -2710,14 +2375,13 @@
       <c r="D72" t="n">
         <v>8.699999999999999</v>
       </c>
-      <c r="E72" t="inlineStr"/>
+      <c r="E72" t="n">
+        <v>0.8156118143459915</v>
+      </c>
       <c r="F72" t="n">
-        <v>0.8156118143459915</v>
-      </c>
-      <c r="G72" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="H72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>Em Destaque</t>
         </is>
@@ -2738,18 +2402,13 @@
       <c r="D73" t="n">
         <v>6.9</v>
       </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>70%</t>
-        </is>
+      <c r="E73" t="n">
+        <v>0.7</v>
       </c>
       <c r="F73" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="G73" t="n">
         <v>7.600000000000001</v>
       </c>
-      <c r="H73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>Padrão</t>
         </is>
@@ -2770,18 +2429,13 @@
       <c r="D74" t="n">
         <v>6</v>
       </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>50%</t>
-        </is>
+      <c r="E74" t="n">
+        <v>0.5</v>
       </c>
       <c r="F74" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G74" t="n">
         <v>5.85</v>
       </c>
-      <c r="H74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>Padrão</t>
         </is>
@@ -2802,18 +2456,13 @@
       <c r="D75" t="n">
         <v>9.5</v>
       </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>95%</t>
-        </is>
+      <c r="E75" t="n">
+        <v>0.95</v>
       </c>
       <c r="F75" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="G75" t="n">
         <v>9.4</v>
       </c>
-      <c r="H75" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>Em Destaque</t>
         </is>
@@ -2834,18 +2483,13 @@
       <c r="D76" t="n">
         <v>8.699999999999999</v>
       </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>85%</t>
-        </is>
+      <c r="E76" t="n">
+        <v>0.85</v>
       </c>
       <c r="F76" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="G76" t="n">
         <v>8.649999999999999</v>
       </c>
-      <c r="H76" t="inlineStr">
+      <c r="G76" t="inlineStr">
         <is>
           <t>Em Destaque</t>
         </is>
@@ -2866,18 +2510,13 @@
       <c r="D77" t="n">
         <v>7.5</v>
       </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>90%</t>
-        </is>
+      <c r="E77" t="n">
+        <v>0.9</v>
       </c>
       <c r="F77" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="G77" t="n">
         <v>7.6</v>
       </c>
-      <c r="H77" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>Em Destaque</t>
         </is>
@@ -2898,18 +2537,13 @@
       <c r="D78" t="n">
         <v>8</v>
       </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>75%</t>
-        </is>
+      <c r="E78" t="n">
+        <v>0.75</v>
       </c>
       <c r="F78" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="G78" t="n">
         <v>7.75</v>
       </c>
-      <c r="H78" t="inlineStr">
+      <c r="G78" t="inlineStr">
         <is>
           <t>Padrão</t>
         </is>
@@ -2930,18 +2564,13 @@
       <c r="D79" t="n">
         <v>7.4</v>
       </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>80%</t>
-        </is>
+      <c r="E79" t="n">
+        <v>0.8</v>
       </c>
       <c r="F79" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="G79" t="n">
         <v>7.2</v>
       </c>
-      <c r="H79" t="inlineStr">
+      <c r="G79" t="inlineStr">
         <is>
           <t>Em Destaque</t>
         </is>
@@ -2962,18 +2591,13 @@
       <c r="D80" t="n">
         <v>7.1</v>
       </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>75%</t>
-        </is>
+      <c r="E80" t="n">
+        <v>0.75</v>
       </c>
       <c r="F80" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="G80" t="n">
         <v>7.649999999999999</v>
       </c>
-      <c r="H80" t="inlineStr">
+      <c r="G80" t="inlineStr">
         <is>
           <t>Padrão</t>
         </is>
@@ -2994,18 +2618,13 @@
       <c r="D81" t="n">
         <v>9.800000000000001</v>
       </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
+      <c r="E81" t="n">
+        <v>1</v>
       </c>
       <c r="F81" t="n">
-        <v>1</v>
-      </c>
-      <c r="G81" t="n">
         <v>9.850000000000001</v>
       </c>
-      <c r="H81" t="inlineStr">
+      <c r="G81" t="inlineStr">
         <is>
           <t>Em Destaque</t>
         </is>
@@ -3026,18 +2645,13 @@
       <c r="D82" t="n">
         <v>7.1</v>
       </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>80%</t>
-        </is>
+      <c r="E82" t="n">
+        <v>0.8</v>
       </c>
       <c r="F82" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="G82" t="n">
         <v>6.949999999999999</v>
       </c>
-      <c r="H82" t="inlineStr">
+      <c r="G82" t="inlineStr">
         <is>
           <t>Padrão</t>
         </is>
@@ -3058,14 +2672,13 @@
       <c r="D83" t="n">
         <v>9</v>
       </c>
-      <c r="E83" t="inlineStr"/>
+      <c r="E83" t="n">
+        <v>0.8156118143459915</v>
+      </c>
       <c r="F83" t="n">
-        <v>0.8156118143459915</v>
-      </c>
-      <c r="G83" t="n">
         <v>8.550000000000001</v>
       </c>
-      <c r="H83" t="inlineStr">
+      <c r="G83" t="inlineStr">
         <is>
           <t>Em Destaque</t>
         </is>
@@ -3086,18 +2699,13 @@
       <c r="D84" t="n">
         <v>6.6</v>
       </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>70%</t>
-        </is>
+      <c r="E84" t="n">
+        <v>0.7</v>
       </c>
       <c r="F84" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="G84" t="n">
         <v>7.25</v>
       </c>
-      <c r="H84" t="inlineStr">
+      <c r="G84" t="inlineStr">
         <is>
           <t>Padrão</t>
         </is>
@@ -3118,18 +2726,13 @@
       <c r="D85" t="n">
         <v>6.2</v>
       </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>50%</t>
-        </is>
+      <c r="E85" t="n">
+        <v>0.5</v>
       </c>
       <c r="F85" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G85" t="n">
         <v>6.25</v>
       </c>
-      <c r="H85" t="inlineStr">
+      <c r="G85" t="inlineStr">
         <is>
           <t>Padrão</t>
         </is>
@@ -3150,18 +2753,13 @@
       <c r="D86" t="n">
         <v>9.1</v>
       </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>95%</t>
-        </is>
+      <c r="E86" t="n">
+        <v>0.95</v>
       </c>
       <c r="F86" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="G86" t="n">
         <v>9</v>
       </c>
-      <c r="H86" t="inlineStr">
+      <c r="G86" t="inlineStr">
         <is>
           <t>Em Destaque</t>
         </is>
@@ -3182,18 +2780,13 @@
       <c r="D87" t="n">
         <v>8.9</v>
       </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>85%</t>
-        </is>
+      <c r="E87" t="n">
+        <v>0.85</v>
       </c>
       <c r="F87" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="G87" t="n">
         <v>8.949999999999999</v>
       </c>
-      <c r="H87" t="inlineStr">
+      <c r="G87" t="inlineStr">
         <is>
           <t>Em Destaque</t>
         </is>
@@ -3214,18 +2807,13 @@
       <c r="D88" t="n">
         <v>7.6</v>
       </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>90%</t>
-        </is>
+      <c r="E88" t="n">
+        <v>0.9</v>
       </c>
       <c r="F88" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="G88" t="n">
         <v>7.5</v>
       </c>
-      <c r="H88" t="inlineStr">
+      <c r="G88" t="inlineStr">
         <is>
           <t>Em Destaque</t>
         </is>
@@ -3246,18 +2834,13 @@
       <c r="D89" t="n">
         <v>8.1</v>
       </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>75%</t>
-        </is>
+      <c r="E89" t="n">
+        <v>0.75</v>
       </c>
       <c r="F89" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="G89" t="n">
         <v>7.85</v>
       </c>
-      <c r="H89" t="inlineStr">
+      <c r="G89" t="inlineStr">
         <is>
           <t>Padrão</t>
         </is>
@@ -3278,18 +2861,13 @@
       <c r="D90" t="n">
         <v>7.7</v>
       </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>80%</t>
-        </is>
+      <c r="E90" t="n">
+        <v>0.8</v>
       </c>
       <c r="F90" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="G90" t="n">
         <v>7.5</v>
       </c>
-      <c r="H90" t="inlineStr">
+      <c r="G90" t="inlineStr">
         <is>
           <t>Em Destaque</t>
         </is>
@@ -3310,18 +2888,13 @@
       <c r="D91" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>75%</t>
-        </is>
+      <c r="E91" t="n">
+        <v>0.75</v>
       </c>
       <c r="F91" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="G91" t="n">
         <v>8.081726907630522</v>
       </c>
-      <c r="H91" t="inlineStr">
+      <c r="G91" t="inlineStr">
         <is>
           <t>Padrão</t>
         </is>
@@ -3342,18 +2915,13 @@
       <c r="D92" t="n">
         <v>9.300000000000001</v>
       </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
+      <c r="E92" t="n">
+        <v>1</v>
       </c>
       <c r="F92" t="n">
-        <v>1</v>
-      </c>
-      <c r="G92" t="n">
         <v>9.4</v>
       </c>
-      <c r="H92" t="inlineStr">
+      <c r="G92" t="inlineStr">
         <is>
           <t>Em Destaque</t>
         </is>
@@ -3374,18 +2942,13 @@
       <c r="D93" t="n">
         <v>7.2</v>
       </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>85%</t>
-        </is>
+      <c r="E93" t="n">
+        <v>0.85</v>
       </c>
       <c r="F93" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="G93" t="n">
         <v>6.95</v>
       </c>
-      <c r="H93" t="inlineStr">
+      <c r="G93" t="inlineStr">
         <is>
           <t>Padrão</t>
         </is>
@@ -3406,18 +2969,13 @@
       <c r="D94" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>90%</t>
-        </is>
+      <c r="E94" t="n">
+        <v>0.9</v>
       </c>
       <c r="F94" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="G94" t="n">
         <v>8.600000000000001</v>
       </c>
-      <c r="H94" t="inlineStr">
+      <c r="G94" t="inlineStr">
         <is>
           <t>Em Destaque</t>
         </is>
@@ -3438,18 +2996,13 @@
       <c r="D95" t="n">
         <v>7.2</v>
       </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>70%</t>
-        </is>
+      <c r="E95" t="n">
+        <v>0.7</v>
       </c>
       <c r="F95" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="G95" t="n">
         <v>7.5</v>
       </c>
-      <c r="H95" t="inlineStr">
+      <c r="G95" t="inlineStr">
         <is>
           <t>Padrão</t>
         </is>
@@ -3470,14 +3023,13 @@
       <c r="D96" t="n">
         <v>6.4</v>
       </c>
-      <c r="E96" t="inlineStr"/>
+      <c r="E96" t="n">
+        <v>0.8156118143459915</v>
+      </c>
       <c r="F96" t="n">
-        <v>0.8156118143459915</v>
-      </c>
-      <c r="G96" t="n">
         <v>6.300000000000001</v>
       </c>
-      <c r="H96" t="inlineStr">
+      <c r="G96" t="inlineStr">
         <is>
           <t>Padrão</t>
         </is>
@@ -3498,18 +3050,13 @@
       <c r="D97" t="n">
         <v>9.199999999999999</v>
       </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>95%</t>
-        </is>
+      <c r="E97" t="n">
+        <v>0.95</v>
       </c>
       <c r="F97" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="G97" t="n">
         <v>9</v>
       </c>
-      <c r="H97" t="inlineStr">
+      <c r="G97" t="inlineStr">
         <is>
           <t>Em Destaque</t>
         </is>
@@ -3530,18 +3077,13 @@
       <c r="D98" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>85%</t>
-        </is>
+      <c r="E98" t="n">
+        <v>0.85</v>
       </c>
       <c r="F98" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="G98" t="n">
         <v>8.949999999999999</v>
       </c>
-      <c r="H98" t="inlineStr">
+      <c r="G98" t="inlineStr">
         <is>
           <t>Em Destaque</t>
         </is>
@@ -3562,18 +3104,13 @@
       <c r="D99" t="n">
         <v>7.5</v>
       </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>90%</t>
-        </is>
+      <c r="E99" t="n">
+        <v>0.9</v>
       </c>
       <c r="F99" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="G99" t="n">
         <v>7.3</v>
       </c>
-      <c r="H99" t="inlineStr">
+      <c r="G99" t="inlineStr">
         <is>
           <t>Em Destaque</t>
         </is>
@@ -3594,18 +3131,13 @@
       <c r="D100" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>75%</t>
-        </is>
+      <c r="E100" t="n">
+        <v>0.75</v>
       </c>
       <c r="F100" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="G100" t="n">
         <v>7.6</v>
       </c>
-      <c r="H100" t="inlineStr">
+      <c r="G100" t="inlineStr">
         <is>
           <t>Padrão</t>
         </is>
@@ -3626,18 +3158,13 @@
       <c r="D101" t="n">
         <v>7.9</v>
       </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>80%</t>
-        </is>
+      <c r="E101" t="n">
+        <v>0.8</v>
       </c>
       <c r="F101" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="G101" t="n">
         <v>7.75</v>
       </c>
-      <c r="H101" t="inlineStr">
+      <c r="G101" t="inlineStr">
         <is>
           <t>Em Destaque</t>
         </is>
@@ -3658,18 +3185,13 @@
       <c r="D102" t="n">
         <v>7.5</v>
       </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>75%</t>
-        </is>
+      <c r="E102" t="n">
+        <v>0.75</v>
       </c>
       <c r="F102" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="G102" t="n">
         <v>7.9</v>
       </c>
-      <c r="H102" t="inlineStr">
+      <c r="G102" t="inlineStr">
         <is>
           <t>Padrão</t>
         </is>
@@ -3690,18 +3212,13 @@
       <c r="D103" t="n">
         <v>9.1</v>
       </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
+      <c r="E103" t="n">
+        <v>1</v>
       </c>
       <c r="F103" t="n">
-        <v>1</v>
-      </c>
-      <c r="G103" t="n">
         <v>9.199999999999999</v>
       </c>
-      <c r="H103" t="inlineStr">
+      <c r="G103" t="inlineStr">
         <is>
           <t>Em Destaque</t>
         </is>
@@ -3722,18 +3239,13 @@
       <c r="D104" t="n">
         <v>7</v>
       </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>85%</t>
-        </is>
+      <c r="E104" t="n">
+        <v>0.85</v>
       </c>
       <c r="F104" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="G104" t="n">
         <v>6.95</v>
       </c>
-      <c r="H104" t="inlineStr">
+      <c r="G104" t="inlineStr">
         <is>
           <t>Padrão</t>
         </is>
@@ -3754,18 +3266,13 @@
       <c r="D105" t="n">
         <v>8.699999999999999</v>
       </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>90%</t>
-        </is>
+      <c r="E105" t="n">
+        <v>0.9</v>
       </c>
       <c r="F105" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="G105" t="n">
         <v>8.5</v>
       </c>
-      <c r="H105" t="inlineStr">
+      <c r="G105" t="inlineStr">
         <is>
           <t>Em Destaque</t>
         </is>
@@ -3786,18 +3293,13 @@
       <c r="D106" t="n">
         <v>7.1</v>
       </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>70%</t>
-        </is>
+      <c r="E106" t="n">
+        <v>0.7</v>
       </c>
       <c r="F106" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="G106" t="n">
         <v>7.4</v>
       </c>
-      <c r="H106" t="inlineStr">
+      <c r="G106" t="inlineStr">
         <is>
           <t>Padrão</t>
         </is>
@@ -3818,18 +3320,13 @@
       <c r="D107" t="n">
         <v>6.3</v>
       </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>50%</t>
-        </is>
+      <c r="E107" t="n">
+        <v>0.5</v>
       </c>
       <c r="F107" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G107" t="n">
         <v>6.199999999999999</v>
       </c>
-      <c r="H107" t="inlineStr">
+      <c r="G107" t="inlineStr">
         <is>
           <t>Padrão</t>
         </is>
@@ -3850,18 +3347,13 @@
       <c r="D108" t="n">
         <v>9</v>
       </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>95%</t>
-        </is>
+      <c r="E108" t="n">
+        <v>0.95</v>
       </c>
       <c r="F108" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="G108" t="n">
         <v>8.85</v>
       </c>
-      <c r="H108" t="inlineStr">
+      <c r="G108" t="inlineStr">
         <is>
           <t>Em Destaque</t>
         </is>
@@ -3882,18 +3374,13 @@
       <c r="D109" t="n">
         <v>8.9</v>
       </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>85%</t>
-        </is>
+      <c r="E109" t="n">
+        <v>0.85</v>
       </c>
       <c r="F109" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="G109" t="n">
         <v>9.050000000000001</v>
       </c>
-      <c r="H109" t="inlineStr">
+      <c r="G109" t="inlineStr">
         <is>
           <t>Em Destaque</t>
         </is>
@@ -3914,18 +3401,13 @@
       <c r="D110" t="n">
         <v>7.7</v>
       </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>90%</t>
-        </is>
+      <c r="E110" t="n">
+        <v>0.9</v>
       </c>
       <c r="F110" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="G110" t="n">
         <v>7.6</v>
       </c>
-      <c r="H110" t="inlineStr">
+      <c r="G110" t="inlineStr">
         <is>
           <t>Em Destaque</t>
         </is>
@@ -3946,18 +3428,13 @@
       <c r="D111" t="n">
         <v>8.1</v>
       </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>75%</t>
-        </is>
+      <c r="E111" t="n">
+        <v>0.75</v>
       </c>
       <c r="F111" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="G111" t="n">
         <v>7.65</v>
       </c>
-      <c r="H111" t="inlineStr">
+      <c r="G111" t="inlineStr">
         <is>
           <t>Padrão</t>
         </is>
@@ -3978,18 +3455,13 @@
       <c r="D112" t="n">
         <v>7.8</v>
       </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>80%</t>
-        </is>
+      <c r="E112" t="n">
+        <v>0.8</v>
       </c>
       <c r="F112" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="G112" t="n">
         <v>7.6</v>
       </c>
-      <c r="H112" t="inlineStr">
+      <c r="G112" t="inlineStr">
         <is>
           <t>Em Destaque</t>
         </is>
@@ -4010,18 +3482,13 @@
       <c r="D113" t="n">
         <v>7.4</v>
       </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>75%</t>
-        </is>
+      <c r="E113" t="n">
+        <v>0.75</v>
       </c>
       <c r="F113" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="G113" t="n">
         <v>7.75</v>
       </c>
-      <c r="H113" t="inlineStr">
+      <c r="G113" t="inlineStr">
         <is>
           <t>Padrão</t>
         </is>
@@ -4042,18 +3509,13 @@
       <c r="D114" t="n">
         <v>9.199999999999999</v>
       </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
+      <c r="E114" t="n">
+        <v>1</v>
       </c>
       <c r="F114" t="n">
-        <v>1</v>
-      </c>
-      <c r="G114" t="n">
         <v>9.300000000000001</v>
       </c>
-      <c r="H114" t="inlineStr">
+      <c r="G114" t="inlineStr">
         <is>
           <t>Em Destaque</t>
         </is>
@@ -4074,18 +3536,13 @@
       <c r="D115" t="n">
         <v>7.3</v>
       </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>85%</t>
-        </is>
+      <c r="E115" t="n">
+        <v>0.85</v>
       </c>
       <c r="F115" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="G115" t="n">
         <v>6.949999999999999</v>
       </c>
-      <c r="H115" t="inlineStr">
+      <c r="G115" t="inlineStr">
         <is>
           <t>Padrão</t>
         </is>
@@ -4106,18 +3563,13 @@
       <c r="D116" t="n">
         <v>8.9</v>
       </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>90%</t>
-        </is>
+      <c r="E116" t="n">
+        <v>0.9</v>
       </c>
       <c r="F116" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="G116" t="n">
         <v>8.550000000000001</v>
       </c>
-      <c r="H116" t="inlineStr">
+      <c r="G116" t="inlineStr">
         <is>
           <t>Em Destaque</t>
         </is>
@@ -4138,18 +3590,13 @@
       <c r="D117" t="n">
         <v>6.8</v>
       </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>70%</t>
-        </is>
+      <c r="E117" t="n">
+        <v>0.7</v>
       </c>
       <c r="F117" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="G117" t="n">
         <v>7.449999999999999</v>
       </c>
-      <c r="H117" t="inlineStr">
+      <c r="G117" t="inlineStr">
         <is>
           <t>Padrão</t>
         </is>
@@ -4170,18 +3617,13 @@
       <c r="D118" t="n">
         <v>6.5</v>
       </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>50%</t>
-        </is>
+      <c r="E118" t="n">
+        <v>0.5</v>
       </c>
       <c r="F118" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G118" t="n">
         <v>6.2</v>
       </c>
-      <c r="H118" t="inlineStr">
+      <c r="G118" t="inlineStr">
         <is>
           <t>Padrão</t>
         </is>
@@ -4202,18 +3644,13 @@
       <c r="D119" t="n">
         <v>9.300000000000001</v>
       </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>95%</t>
-        </is>
+      <c r="E119" t="n">
+        <v>0.95</v>
       </c>
       <c r="F119" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="G119" t="n">
         <v>9.199999999999999</v>
       </c>
-      <c r="H119" t="inlineStr">
+      <c r="G119" t="inlineStr">
         <is>
           <t>Em Destaque</t>
         </is>
@@ -4234,18 +3671,13 @@
       <c r="D120" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>85%</t>
-        </is>
+      <c r="E120" t="n">
+        <v>0.85</v>
       </c>
       <c r="F120" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="G120" t="n">
         <v>8.850000000000001</v>
       </c>
-      <c r="H120" t="inlineStr">
+      <c r="G120" t="inlineStr">
         <is>
           <t>Em Destaque</t>
         </is>
@@ -4266,18 +3698,13 @@
       <c r="D121" t="n">
         <v>7.8</v>
       </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>90%</t>
-        </is>
+      <c r="E121" t="n">
+        <v>0.9</v>
       </c>
       <c r="F121" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="G121" t="n">
         <v>7.55</v>
       </c>
-      <c r="H121" t="inlineStr">
+      <c r="G121" t="inlineStr">
         <is>
           <t>Em Destaque</t>
         </is>
@@ -4298,18 +3725,13 @@
       <c r="D122" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>75%</t>
-        </is>
+      <c r="E122" t="n">
+        <v>0.75</v>
       </c>
       <c r="F122" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="G122" t="n">
         <v>7.850000000000001</v>
       </c>
-      <c r="H122" t="inlineStr">
+      <c r="G122" t="inlineStr">
         <is>
           <t>Padrão</t>
         </is>
@@ -4330,18 +3752,13 @@
       <c r="D123" t="n">
         <v>7.6</v>
       </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>80%</t>
-        </is>
+      <c r="E123" t="n">
+        <v>0.8</v>
       </c>
       <c r="F123" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="G123" t="n">
         <v>7.4</v>
       </c>
-      <c r="H123" t="inlineStr">
+      <c r="G123" t="inlineStr">
         <is>
           <t>Em Destaque</t>
         </is>
@@ -4362,18 +3779,13 @@
       <c r="D124" t="n">
         <v>7.6</v>
       </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>75%</t>
-        </is>
+      <c r="E124" t="n">
+        <v>0.75</v>
       </c>
       <c r="F124" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="G124" t="n">
         <v>8.050000000000001</v>
       </c>
-      <c r="H124" t="inlineStr">
+      <c r="G124" t="inlineStr">
         <is>
           <t>Padrão</t>
         </is>
@@ -4394,18 +3806,13 @@
       <c r="D125" t="n">
         <v>9.4</v>
       </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
+      <c r="E125" t="n">
+        <v>1</v>
       </c>
       <c r="F125" t="n">
-        <v>1</v>
-      </c>
-      <c r="G125" t="n">
         <v>9.550000000000001</v>
       </c>
-      <c r="H125" t="inlineStr">
+      <c r="G125" t="inlineStr">
         <is>
           <t>Em Destaque</t>
         </is>
@@ -4426,18 +3833,13 @@
       <c r="D126" t="n">
         <v>6.9</v>
       </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>80%</t>
-        </is>
+      <c r="E126" t="n">
+        <v>0.8</v>
       </c>
       <c r="F126" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="G126" t="n">
         <v>6.65</v>
       </c>
-      <c r="H126" t="inlineStr">
+      <c r="G126" t="inlineStr">
         <is>
           <t>Padrão</t>
         </is>
@@ -4458,14 +3860,13 @@
       <c r="D127" t="n">
         <v>8.699999999999999</v>
       </c>
-      <c r="E127" t="inlineStr"/>
+      <c r="E127" t="n">
+        <v>0.8156118143459915</v>
+      </c>
       <c r="F127" t="n">
-        <v>0.8156118143459915</v>
-      </c>
-      <c r="G127" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="H127" t="inlineStr">
+      <c r="G127" t="inlineStr">
         <is>
           <t>Em Destaque</t>
         </is>
@@ -4486,18 +3887,13 @@
       <c r="D128" t="n">
         <v>6.9</v>
       </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>70%</t>
-        </is>
+      <c r="E128" t="n">
+        <v>0.7</v>
       </c>
       <c r="F128" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="G128" t="n">
         <v>7.600000000000001</v>
       </c>
-      <c r="H128" t="inlineStr">
+      <c r="G128" t="inlineStr">
         <is>
           <t>Padrão</t>
         </is>
@@ -4518,18 +3914,13 @@
       <c r="D129" t="n">
         <v>6</v>
       </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>50%</t>
-        </is>
+      <c r="E129" t="n">
+        <v>0.5</v>
       </c>
       <c r="F129" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G129" t="n">
         <v>5.85</v>
       </c>
-      <c r="H129" t="inlineStr">
+      <c r="G129" t="inlineStr">
         <is>
           <t>Padrão</t>
         </is>
@@ -4550,18 +3941,13 @@
       <c r="D130" t="n">
         <v>9.5</v>
       </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>95%</t>
-        </is>
+      <c r="E130" t="n">
+        <v>0.95</v>
       </c>
       <c r="F130" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="G130" t="n">
         <v>9.4</v>
       </c>
-      <c r="H130" t="inlineStr">
+      <c r="G130" t="inlineStr">
         <is>
           <t>Em Destaque</t>
         </is>
@@ -4582,18 +3968,13 @@
       <c r="D131" t="n">
         <v>8.699999999999999</v>
       </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>85%</t>
-        </is>
+      <c r="E131" t="n">
+        <v>0.85</v>
       </c>
       <c r="F131" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="G131" t="n">
         <v>8.649999999999999</v>
       </c>
-      <c r="H131" t="inlineStr">
+      <c r="G131" t="inlineStr">
         <is>
           <t>Em Destaque</t>
         </is>
@@ -4614,18 +3995,13 @@
       <c r="D132" t="n">
         <v>7.5</v>
       </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>90%</t>
-        </is>
+      <c r="E132" t="n">
+        <v>0.9</v>
       </c>
       <c r="F132" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="G132" t="n">
         <v>7.6</v>
       </c>
-      <c r="H132" t="inlineStr">
+      <c r="G132" t="inlineStr">
         <is>
           <t>Em Destaque</t>
         </is>
@@ -4646,18 +4022,13 @@
       <c r="D133" t="n">
         <v>8</v>
       </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>75%</t>
-        </is>
+      <c r="E133" t="n">
+        <v>0.75</v>
       </c>
       <c r="F133" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="G133" t="n">
         <v>7.75</v>
       </c>
-      <c r="H133" t="inlineStr">
+      <c r="G133" t="inlineStr">
         <is>
           <t>Padrão</t>
         </is>
@@ -4678,18 +4049,13 @@
       <c r="D134" t="n">
         <v>7.4</v>
       </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>80%</t>
-        </is>
+      <c r="E134" t="n">
+        <v>0.8</v>
       </c>
       <c r="F134" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="G134" t="n">
         <v>7.2</v>
       </c>
-      <c r="H134" t="inlineStr">
+      <c r="G134" t="inlineStr">
         <is>
           <t>Em Destaque</t>
         </is>
@@ -4710,18 +4076,13 @@
       <c r="D135" t="n">
         <v>7.1</v>
       </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>75%</t>
-        </is>
+      <c r="E135" t="n">
+        <v>0.75</v>
       </c>
       <c r="F135" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="G135" t="n">
         <v>7.649999999999999</v>
       </c>
-      <c r="H135" t="inlineStr">
+      <c r="G135" t="inlineStr">
         <is>
           <t>Padrão</t>
         </is>
@@ -4742,18 +4103,13 @@
       <c r="D136" t="n">
         <v>9.800000000000001</v>
       </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
+      <c r="E136" t="n">
+        <v>1</v>
       </c>
       <c r="F136" t="n">
-        <v>1</v>
-      </c>
-      <c r="G136" t="n">
         <v>9.850000000000001</v>
       </c>
-      <c r="H136" t="inlineStr">
+      <c r="G136" t="inlineStr">
         <is>
           <t>Em Destaque</t>
         </is>
@@ -4774,18 +4130,13 @@
       <c r="D137" t="n">
         <v>7.1</v>
       </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>80%</t>
-        </is>
+      <c r="E137" t="n">
+        <v>0.8</v>
       </c>
       <c r="F137" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="G137" t="n">
         <v>6.949999999999999</v>
       </c>
-      <c r="H137" t="inlineStr">
+      <c r="G137" t="inlineStr">
         <is>
           <t>Padrão</t>
         </is>
@@ -4806,14 +4157,13 @@
       <c r="D138" t="n">
         <v>9</v>
       </c>
-      <c r="E138" t="inlineStr"/>
+      <c r="E138" t="n">
+        <v>0.8156118143459915</v>
+      </c>
       <c r="F138" t="n">
-        <v>0.8156118143459915</v>
-      </c>
-      <c r="G138" t="n">
         <v>8.550000000000001</v>
       </c>
-      <c r="H138" t="inlineStr">
+      <c r="G138" t="inlineStr">
         <is>
           <t>Em Destaque</t>
         </is>
@@ -4834,18 +4184,13 @@
       <c r="D139" t="n">
         <v>6.6</v>
       </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>70%</t>
-        </is>
+      <c r="E139" t="n">
+        <v>0.7</v>
       </c>
       <c r="F139" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="G139" t="n">
         <v>7.25</v>
       </c>
-      <c r="H139" t="inlineStr">
+      <c r="G139" t="inlineStr">
         <is>
           <t>Padrão</t>
         </is>
@@ -4866,18 +4211,13 @@
       <c r="D140" t="n">
         <v>6.2</v>
       </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>50%</t>
-        </is>
+      <c r="E140" t="n">
+        <v>0.5</v>
       </c>
       <c r="F140" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G140" t="n">
         <v>6.25</v>
       </c>
-      <c r="H140" t="inlineStr">
+      <c r="G140" t="inlineStr">
         <is>
           <t>Padrão</t>
         </is>
@@ -4898,18 +4238,13 @@
       <c r="D141" t="n">
         <v>9.1</v>
       </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>95%</t>
-        </is>
+      <c r="E141" t="n">
+        <v>0.95</v>
       </c>
       <c r="F141" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="G141" t="n">
         <v>9</v>
       </c>
-      <c r="H141" t="inlineStr">
+      <c r="G141" t="inlineStr">
         <is>
           <t>Em Destaque</t>
         </is>
@@ -4930,18 +4265,13 @@
       <c r="D142" t="n">
         <v>8.9</v>
       </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>85%</t>
-        </is>
+      <c r="E142" t="n">
+        <v>0.85</v>
       </c>
       <c r="F142" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="G142" t="n">
         <v>8.949999999999999</v>
       </c>
-      <c r="H142" t="inlineStr">
+      <c r="G142" t="inlineStr">
         <is>
           <t>Em Destaque</t>
         </is>
@@ -4962,18 +4292,13 @@
       <c r="D143" t="n">
         <v>7.6</v>
       </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>90%</t>
-        </is>
+      <c r="E143" t="n">
+        <v>0.9</v>
       </c>
       <c r="F143" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="G143" t="n">
         <v>7.5</v>
       </c>
-      <c r="H143" t="inlineStr">
+      <c r="G143" t="inlineStr">
         <is>
           <t>Em Destaque</t>
         </is>
@@ -4994,18 +4319,13 @@
       <c r="D144" t="n">
         <v>8.1</v>
       </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>75%</t>
-        </is>
+      <c r="E144" t="n">
+        <v>0.75</v>
       </c>
       <c r="F144" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="G144" t="n">
         <v>7.85</v>
       </c>
-      <c r="H144" t="inlineStr">
+      <c r="G144" t="inlineStr">
         <is>
           <t>Padrão</t>
         </is>
@@ -5026,18 +4346,13 @@
       <c r="D145" t="n">
         <v>7.7</v>
       </c>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>80%</t>
-        </is>
+      <c r="E145" t="n">
+        <v>0.8</v>
       </c>
       <c r="F145" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="G145" t="n">
         <v>7.5</v>
       </c>
-      <c r="H145" t="inlineStr">
+      <c r="G145" t="inlineStr">
         <is>
           <t>Em Destaque</t>
         </is>
@@ -5058,18 +4373,13 @@
       <c r="D146" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>75%</t>
-        </is>
+      <c r="E146" t="n">
+        <v>0.75</v>
       </c>
       <c r="F146" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="G146" t="n">
         <v>8.081726907630522</v>
       </c>
-      <c r="H146" t="inlineStr">
+      <c r="G146" t="inlineStr">
         <is>
           <t>Padrão</t>
         </is>
@@ -5090,18 +4400,13 @@
       <c r="D147" t="n">
         <v>9.300000000000001</v>
       </c>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
+      <c r="E147" t="n">
+        <v>1</v>
       </c>
       <c r="F147" t="n">
-        <v>1</v>
-      </c>
-      <c r="G147" t="n">
         <v>9.4</v>
       </c>
-      <c r="H147" t="inlineStr">
+      <c r="G147" t="inlineStr">
         <is>
           <t>Em Destaque</t>
         </is>
@@ -5122,18 +4427,13 @@
       <c r="D148" t="n">
         <v>7.2</v>
       </c>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>85%</t>
-        </is>
+      <c r="E148" t="n">
+        <v>0.85</v>
       </c>
       <c r="F148" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="G148" t="n">
         <v>6.95</v>
       </c>
-      <c r="H148" t="inlineStr">
+      <c r="G148" t="inlineStr">
         <is>
           <t>Padrão</t>
         </is>
@@ -5154,18 +4454,13 @@
       <c r="D149" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>90%</t>
-        </is>
+      <c r="E149" t="n">
+        <v>0.9</v>
       </c>
       <c r="F149" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="G149" t="n">
         <v>8.600000000000001</v>
       </c>
-      <c r="H149" t="inlineStr">
+      <c r="G149" t="inlineStr">
         <is>
           <t>Em Destaque</t>
         </is>
@@ -5186,18 +4481,13 @@
       <c r="D150" t="n">
         <v>7.2</v>
       </c>
-      <c r="E150" t="inlineStr">
-        <is>
-          <t>70%</t>
-        </is>
+      <c r="E150" t="n">
+        <v>0.7</v>
       </c>
       <c r="F150" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="G150" t="n">
         <v>7.5</v>
       </c>
-      <c r="H150" t="inlineStr">
+      <c r="G150" t="inlineStr">
         <is>
           <t>Padrão</t>
         </is>
@@ -5218,14 +4508,13 @@
       <c r="D151" t="n">
         <v>6.4</v>
       </c>
-      <c r="E151" t="inlineStr"/>
+      <c r="E151" t="n">
+        <v>0.8156118143459915</v>
+      </c>
       <c r="F151" t="n">
-        <v>0.8156118143459915</v>
-      </c>
-      <c r="G151" t="n">
         <v>6.300000000000001</v>
       </c>
-      <c r="H151" t="inlineStr">
+      <c r="G151" t="inlineStr">
         <is>
           <t>Padrão</t>
         </is>
@@ -5246,18 +4535,13 @@
       <c r="D152" t="n">
         <v>9.199999999999999</v>
       </c>
-      <c r="E152" t="inlineStr">
-        <is>
-          <t>95%</t>
-        </is>
+      <c r="E152" t="n">
+        <v>0.95</v>
       </c>
       <c r="F152" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="G152" t="n">
         <v>9</v>
       </c>
-      <c r="H152" t="inlineStr">
+      <c r="G152" t="inlineStr">
         <is>
           <t>Em Destaque</t>
         </is>
@@ -5278,18 +4562,13 @@
       <c r="D153" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="E153" t="inlineStr">
-        <is>
-          <t>85%</t>
-        </is>
+      <c r="E153" t="n">
+        <v>0.85</v>
       </c>
       <c r="F153" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="G153" t="n">
         <v>8.949999999999999</v>
       </c>
-      <c r="H153" t="inlineStr">
+      <c r="G153" t="inlineStr">
         <is>
           <t>Em Destaque</t>
         </is>
@@ -5310,18 +4589,13 @@
       <c r="D154" t="n">
         <v>7.5</v>
       </c>
-      <c r="E154" t="inlineStr">
-        <is>
-          <t>90%</t>
-        </is>
+      <c r="E154" t="n">
+        <v>0.9</v>
       </c>
       <c r="F154" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="G154" t="n">
         <v>7.3</v>
       </c>
-      <c r="H154" t="inlineStr">
+      <c r="G154" t="inlineStr">
         <is>
           <t>Em Destaque</t>
         </is>
@@ -5342,18 +4616,13 @@
       <c r="D155" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="E155" t="inlineStr">
-        <is>
-          <t>75%</t>
-        </is>
+      <c r="E155" t="n">
+        <v>0.75</v>
       </c>
       <c r="F155" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="G155" t="n">
         <v>7.6</v>
       </c>
-      <c r="H155" t="inlineStr">
+      <c r="G155" t="inlineStr">
         <is>
           <t>Padrão</t>
         </is>
@@ -5374,18 +4643,13 @@
       <c r="D156" t="n">
         <v>7.9</v>
       </c>
-      <c r="E156" t="inlineStr">
-        <is>
-          <t>80%</t>
-        </is>
+      <c r="E156" t="n">
+        <v>0.8</v>
       </c>
       <c r="F156" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="G156" t="n">
         <v>7.75</v>
       </c>
-      <c r="H156" t="inlineStr">
+      <c r="G156" t="inlineStr">
         <is>
           <t>Em Destaque</t>
         </is>
@@ -5406,18 +4670,13 @@
       <c r="D157" t="n">
         <v>7.5</v>
       </c>
-      <c r="E157" t="inlineStr">
-        <is>
-          <t>75%</t>
-        </is>
+      <c r="E157" t="n">
+        <v>0.75</v>
       </c>
       <c r="F157" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="G157" t="n">
         <v>7.9</v>
       </c>
-      <c r="H157" t="inlineStr">
+      <c r="G157" t="inlineStr">
         <is>
           <t>Padrão</t>
         </is>
@@ -5438,18 +4697,13 @@
       <c r="D158" t="n">
         <v>9.1</v>
       </c>
-      <c r="E158" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
+      <c r="E158" t="n">
+        <v>1</v>
       </c>
       <c r="F158" t="n">
-        <v>1</v>
-      </c>
-      <c r="G158" t="n">
         <v>9.199999999999999</v>
       </c>
-      <c r="H158" t="inlineStr">
+      <c r="G158" t="inlineStr">
         <is>
           <t>Em Destaque</t>
         </is>
@@ -5470,18 +4724,13 @@
       <c r="D159" t="n">
         <v>7</v>
       </c>
-      <c r="E159" t="inlineStr">
-        <is>
-          <t>85%</t>
-        </is>
+      <c r="E159" t="n">
+        <v>0.85</v>
       </c>
       <c r="F159" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="G159" t="n">
         <v>6.95</v>
       </c>
-      <c r="H159" t="inlineStr">
+      <c r="G159" t="inlineStr">
         <is>
           <t>Padrão</t>
         </is>
@@ -5502,18 +4751,13 @@
       <c r="D160" t="n">
         <v>8.699999999999999</v>
       </c>
-      <c r="E160" t="inlineStr">
-        <is>
-          <t>90%</t>
-        </is>
+      <c r="E160" t="n">
+        <v>0.9</v>
       </c>
       <c r="F160" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="G160" t="n">
         <v>8.5</v>
       </c>
-      <c r="H160" t="inlineStr">
+      <c r="G160" t="inlineStr">
         <is>
           <t>Em Destaque</t>
         </is>
@@ -5534,18 +4778,13 @@
       <c r="D161" t="n">
         <v>7.1</v>
       </c>
-      <c r="E161" t="inlineStr">
-        <is>
-          <t>70%</t>
-        </is>
+      <c r="E161" t="n">
+        <v>0.7</v>
       </c>
       <c r="F161" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="G161" t="n">
         <v>7.4</v>
       </c>
-      <c r="H161" t="inlineStr">
+      <c r="G161" t="inlineStr">
         <is>
           <t>Padrão</t>
         </is>
@@ -5566,18 +4805,13 @@
       <c r="D162" t="n">
         <v>6.3</v>
       </c>
-      <c r="E162" t="inlineStr">
-        <is>
-          <t>50%</t>
-        </is>
+      <c r="E162" t="n">
+        <v>0.5</v>
       </c>
       <c r="F162" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G162" t="n">
         <v>6.199999999999999</v>
       </c>
-      <c r="H162" t="inlineStr">
+      <c r="G162" t="inlineStr">
         <is>
           <t>Padrão</t>
         </is>
@@ -5598,18 +4832,13 @@
       <c r="D163" t="n">
         <v>9</v>
       </c>
-      <c r="E163" t="inlineStr">
-        <is>
-          <t>95%</t>
-        </is>
+      <c r="E163" t="n">
+        <v>0.95</v>
       </c>
       <c r="F163" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="G163" t="n">
         <v>8.85</v>
       </c>
-      <c r="H163" t="inlineStr">
+      <c r="G163" t="inlineStr">
         <is>
           <t>Em Destaque</t>
         </is>
@@ -5630,18 +4859,13 @@
       <c r="D164" t="n">
         <v>8.9</v>
       </c>
-      <c r="E164" t="inlineStr">
-        <is>
-          <t>85%</t>
-        </is>
+      <c r="E164" t="n">
+        <v>0.85</v>
       </c>
       <c r="F164" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="G164" t="n">
         <v>9.050000000000001</v>
       </c>
-      <c r="H164" t="inlineStr">
+      <c r="G164" t="inlineStr">
         <is>
           <t>Em Destaque</t>
         </is>
@@ -5662,18 +4886,13 @@
       <c r="D165" t="n">
         <v>7.7</v>
       </c>
-      <c r="E165" t="inlineStr">
-        <is>
-          <t>90%</t>
-        </is>
+      <c r="E165" t="n">
+        <v>0.9</v>
       </c>
       <c r="F165" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="G165" t="n">
         <v>7.6</v>
       </c>
-      <c r="H165" t="inlineStr">
+      <c r="G165" t="inlineStr">
         <is>
           <t>Em Destaque</t>
         </is>
@@ -5694,18 +4913,13 @@
       <c r="D166" t="n">
         <v>8.1</v>
       </c>
-      <c r="E166" t="inlineStr">
-        <is>
-          <t>75%</t>
-        </is>
+      <c r="E166" t="n">
+        <v>0.75</v>
       </c>
       <c r="F166" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="G166" t="n">
         <v>7.65</v>
       </c>
-      <c r="H166" t="inlineStr">
+      <c r="G166" t="inlineStr">
         <is>
           <t>Padrão</t>
         </is>
@@ -5726,18 +4940,13 @@
       <c r="D167" t="n">
         <v>7.8</v>
       </c>
-      <c r="E167" t="inlineStr">
-        <is>
-          <t>80%</t>
-        </is>
+      <c r="E167" t="n">
+        <v>0.8</v>
       </c>
       <c r="F167" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="G167" t="n">
         <v>7.6</v>
       </c>
-      <c r="H167" t="inlineStr">
+      <c r="G167" t="inlineStr">
         <is>
           <t>Em Destaque</t>
         </is>
@@ -5758,18 +4967,13 @@
       <c r="D168" t="n">
         <v>7.4</v>
       </c>
-      <c r="E168" t="inlineStr">
-        <is>
-          <t>75%</t>
-        </is>
+      <c r="E168" t="n">
+        <v>0.75</v>
       </c>
       <c r="F168" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="G168" t="n">
         <v>7.75</v>
       </c>
-      <c r="H168" t="inlineStr">
+      <c r="G168" t="inlineStr">
         <is>
           <t>Padrão</t>
         </is>
@@ -5790,18 +4994,13 @@
       <c r="D169" t="n">
         <v>9.199999999999999</v>
       </c>
-      <c r="E169" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
+      <c r="E169" t="n">
+        <v>1</v>
       </c>
       <c r="F169" t="n">
-        <v>1</v>
-      </c>
-      <c r="G169" t="n">
         <v>9.300000000000001</v>
       </c>
-      <c r="H169" t="inlineStr">
+      <c r="G169" t="inlineStr">
         <is>
           <t>Em Destaque</t>
         </is>
@@ -5822,18 +5021,13 @@
       <c r="D170" t="n">
         <v>7.3</v>
       </c>
-      <c r="E170" t="inlineStr">
-        <is>
-          <t>85%</t>
-        </is>
+      <c r="E170" t="n">
+        <v>0.85</v>
       </c>
       <c r="F170" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="G170" t="n">
         <v>6.949999999999999</v>
       </c>
-      <c r="H170" t="inlineStr">
+      <c r="G170" t="inlineStr">
         <is>
           <t>Padrão</t>
         </is>
@@ -5854,18 +5048,13 @@
       <c r="D171" t="n">
         <v>8.9</v>
       </c>
-      <c r="E171" t="inlineStr">
-        <is>
-          <t>90%</t>
-        </is>
+      <c r="E171" t="n">
+        <v>0.9</v>
       </c>
       <c r="F171" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="G171" t="n">
         <v>8.550000000000001</v>
       </c>
-      <c r="H171" t="inlineStr">
+      <c r="G171" t="inlineStr">
         <is>
           <t>Em Destaque</t>
         </is>
@@ -5886,18 +5075,13 @@
       <c r="D172" t="n">
         <v>6.8</v>
       </c>
-      <c r="E172" t="inlineStr">
-        <is>
-          <t>70%</t>
-        </is>
+      <c r="E172" t="n">
+        <v>0.7</v>
       </c>
       <c r="F172" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="G172" t="n">
         <v>7.449999999999999</v>
       </c>
-      <c r="H172" t="inlineStr">
+      <c r="G172" t="inlineStr">
         <is>
           <t>Padrão</t>
         </is>
@@ -5918,18 +5102,13 @@
       <c r="D173" t="n">
         <v>6.5</v>
       </c>
-      <c r="E173" t="inlineStr">
-        <is>
-          <t>50%</t>
-        </is>
+      <c r="E173" t="n">
+        <v>0.5</v>
       </c>
       <c r="F173" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G173" t="n">
         <v>6.2</v>
       </c>
-      <c r="H173" t="inlineStr">
+      <c r="G173" t="inlineStr">
         <is>
           <t>Padrão</t>
         </is>
@@ -5950,18 +5129,13 @@
       <c r="D174" t="n">
         <v>9.300000000000001</v>
       </c>
-      <c r="E174" t="inlineStr">
-        <is>
-          <t>95%</t>
-        </is>
+      <c r="E174" t="n">
+        <v>0.95</v>
       </c>
       <c r="F174" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="G174" t="n">
         <v>9.199999999999999</v>
       </c>
-      <c r="H174" t="inlineStr">
+      <c r="G174" t="inlineStr">
         <is>
           <t>Em Destaque</t>
         </is>
@@ -5982,18 +5156,13 @@
       <c r="D175" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="E175" t="inlineStr">
-        <is>
-          <t>85%</t>
-        </is>
+      <c r="E175" t="n">
+        <v>0.85</v>
       </c>
       <c r="F175" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="G175" t="n">
         <v>8.850000000000001</v>
       </c>
-      <c r="H175" t="inlineStr">
+      <c r="G175" t="inlineStr">
         <is>
           <t>Em Destaque</t>
         </is>
@@ -6014,18 +5183,13 @@
       <c r="D176" t="n">
         <v>7.8</v>
       </c>
-      <c r="E176" t="inlineStr">
-        <is>
-          <t>90%</t>
-        </is>
+      <c r="E176" t="n">
+        <v>0.9</v>
       </c>
       <c r="F176" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="G176" t="n">
         <v>7.55</v>
       </c>
-      <c r="H176" t="inlineStr">
+      <c r="G176" t="inlineStr">
         <is>
           <t>Em Destaque</t>
         </is>
@@ -6046,18 +5210,13 @@
       <c r="D177" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="E177" t="inlineStr">
-        <is>
-          <t>75%</t>
-        </is>
+      <c r="E177" t="n">
+        <v>0.75</v>
       </c>
       <c r="F177" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="G177" t="n">
         <v>7.850000000000001</v>
       </c>
-      <c r="H177" t="inlineStr">
+      <c r="G177" t="inlineStr">
         <is>
           <t>Padrão</t>
         </is>
@@ -6078,18 +5237,13 @@
       <c r="D178" t="n">
         <v>7.6</v>
       </c>
-      <c r="E178" t="inlineStr">
-        <is>
-          <t>80%</t>
-        </is>
+      <c r="E178" t="n">
+        <v>0.8</v>
       </c>
       <c r="F178" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="G178" t="n">
         <v>7.4</v>
       </c>
-      <c r="H178" t="inlineStr">
+      <c r="G178" t="inlineStr">
         <is>
           <t>Em Destaque</t>
         </is>
@@ -6110,18 +5264,13 @@
       <c r="D179" t="n">
         <v>7.6</v>
       </c>
-      <c r="E179" t="inlineStr">
-        <is>
-          <t>75%</t>
-        </is>
+      <c r="E179" t="n">
+        <v>0.75</v>
       </c>
       <c r="F179" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="G179" t="n">
         <v>8.050000000000001</v>
       </c>
-      <c r="H179" t="inlineStr">
+      <c r="G179" t="inlineStr">
         <is>
           <t>Padrão</t>
         </is>
@@ -6142,18 +5291,13 @@
       <c r="D180" t="n">
         <v>9.4</v>
       </c>
-      <c r="E180" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
+      <c r="E180" t="n">
+        <v>1</v>
       </c>
       <c r="F180" t="n">
-        <v>1</v>
-      </c>
-      <c r="G180" t="n">
         <v>9.550000000000001</v>
       </c>
-      <c r="H180" t="inlineStr">
+      <c r="G180" t="inlineStr">
         <is>
           <t>Em Destaque</t>
         </is>
@@ -6174,18 +5318,13 @@
       <c r="D181" t="n">
         <v>6.9</v>
       </c>
-      <c r="E181" t="inlineStr">
-        <is>
-          <t>80%</t>
-        </is>
+      <c r="E181" t="n">
+        <v>0.8</v>
       </c>
       <c r="F181" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="G181" t="n">
         <v>6.65</v>
       </c>
-      <c r="H181" t="inlineStr">
+      <c r="G181" t="inlineStr">
         <is>
           <t>Padrão</t>
         </is>
@@ -6206,14 +5345,13 @@
       <c r="D182" t="n">
         <v>8.699999999999999</v>
       </c>
-      <c r="E182" t="inlineStr"/>
+      <c r="E182" t="n">
+        <v>0.8156118143459915</v>
+      </c>
       <c r="F182" t="n">
-        <v>0.8156118143459915</v>
-      </c>
-      <c r="G182" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="H182" t="inlineStr">
+      <c r="G182" t="inlineStr">
         <is>
           <t>Em Destaque</t>
         </is>
@@ -6234,18 +5372,13 @@
       <c r="D183" t="n">
         <v>6.9</v>
       </c>
-      <c r="E183" t="inlineStr">
-        <is>
-          <t>70%</t>
-        </is>
+      <c r="E183" t="n">
+        <v>0.7</v>
       </c>
       <c r="F183" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="G183" t="n">
         <v>7.600000000000001</v>
       </c>
-      <c r="H183" t="inlineStr">
+      <c r="G183" t="inlineStr">
         <is>
           <t>Padrão</t>
         </is>
@@ -6266,18 +5399,13 @@
       <c r="D184" t="n">
         <v>6</v>
       </c>
-      <c r="E184" t="inlineStr">
-        <is>
-          <t>50%</t>
-        </is>
+      <c r="E184" t="n">
+        <v>0.5</v>
       </c>
       <c r="F184" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G184" t="n">
         <v>5.85</v>
       </c>
-      <c r="H184" t="inlineStr">
+      <c r="G184" t="inlineStr">
         <is>
           <t>Padrão</t>
         </is>
@@ -6298,18 +5426,13 @@
       <c r="D185" t="n">
         <v>9.5</v>
       </c>
-      <c r="E185" t="inlineStr">
-        <is>
-          <t>95%</t>
-        </is>
+      <c r="E185" t="n">
+        <v>0.95</v>
       </c>
       <c r="F185" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="G185" t="n">
         <v>9.4</v>
       </c>
-      <c r="H185" t="inlineStr">
+      <c r="G185" t="inlineStr">
         <is>
           <t>Em Destaque</t>
         </is>
@@ -6330,18 +5453,13 @@
       <c r="D186" t="n">
         <v>8.699999999999999</v>
       </c>
-      <c r="E186" t="inlineStr">
-        <is>
-          <t>85%</t>
-        </is>
+      <c r="E186" t="n">
+        <v>0.85</v>
       </c>
       <c r="F186" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="G186" t="n">
         <v>8.649999999999999</v>
       </c>
-      <c r="H186" t="inlineStr">
+      <c r="G186" t="inlineStr">
         <is>
           <t>Em Destaque</t>
         </is>
@@ -6362,18 +5480,13 @@
       <c r="D187" t="n">
         <v>7.5</v>
       </c>
-      <c r="E187" t="inlineStr">
-        <is>
-          <t>90%</t>
-        </is>
+      <c r="E187" t="n">
+        <v>0.9</v>
       </c>
       <c r="F187" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="G187" t="n">
         <v>7.6</v>
       </c>
-      <c r="H187" t="inlineStr">
+      <c r="G187" t="inlineStr">
         <is>
           <t>Em Destaque</t>
         </is>
@@ -6394,18 +5507,13 @@
       <c r="D188" t="n">
         <v>8</v>
       </c>
-      <c r="E188" t="inlineStr">
-        <is>
-          <t>75%</t>
-        </is>
+      <c r="E188" t="n">
+        <v>0.75</v>
       </c>
       <c r="F188" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="G188" t="n">
         <v>7.75</v>
       </c>
-      <c r="H188" t="inlineStr">
+      <c r="G188" t="inlineStr">
         <is>
           <t>Padrão</t>
         </is>
@@ -6426,18 +5534,13 @@
       <c r="D189" t="n">
         <v>7.4</v>
       </c>
-      <c r="E189" t="inlineStr">
-        <is>
-          <t>80%</t>
-        </is>
+      <c r="E189" t="n">
+        <v>0.8</v>
       </c>
       <c r="F189" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="G189" t="n">
         <v>7.2</v>
       </c>
-      <c r="H189" t="inlineStr">
+      <c r="G189" t="inlineStr">
         <is>
           <t>Em Destaque</t>
         </is>
@@ -6458,18 +5561,13 @@
       <c r="D190" t="n">
         <v>7.1</v>
       </c>
-      <c r="E190" t="inlineStr">
-        <is>
-          <t>75%</t>
-        </is>
+      <c r="E190" t="n">
+        <v>0.75</v>
       </c>
       <c r="F190" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="G190" t="n">
         <v>7.649999999999999</v>
       </c>
-      <c r="H190" t="inlineStr">
+      <c r="G190" t="inlineStr">
         <is>
           <t>Padrão</t>
         </is>
@@ -6490,18 +5588,13 @@
       <c r="D191" t="n">
         <v>9.800000000000001</v>
       </c>
-      <c r="E191" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
+      <c r="E191" t="n">
+        <v>1</v>
       </c>
       <c r="F191" t="n">
-        <v>1</v>
-      </c>
-      <c r="G191" t="n">
         <v>9.850000000000001</v>
       </c>
-      <c r="H191" t="inlineStr">
+      <c r="G191" t="inlineStr">
         <is>
           <t>Em Destaque</t>
         </is>
@@ -6522,18 +5615,13 @@
       <c r="D192" t="n">
         <v>7.1</v>
       </c>
-      <c r="E192" t="inlineStr">
-        <is>
-          <t>80%</t>
-        </is>
+      <c r="E192" t="n">
+        <v>0.8</v>
       </c>
       <c r="F192" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="G192" t="n">
         <v>6.949999999999999</v>
       </c>
-      <c r="H192" t="inlineStr">
+      <c r="G192" t="inlineStr">
         <is>
           <t>Padrão</t>
         </is>
@@ -6554,14 +5642,13 @@
       <c r="D193" t="n">
         <v>9</v>
       </c>
-      <c r="E193" t="inlineStr"/>
+      <c r="E193" t="n">
+        <v>0.8156118143459915</v>
+      </c>
       <c r="F193" t="n">
-        <v>0.8156118143459915</v>
-      </c>
-      <c r="G193" t="n">
         <v>8.550000000000001</v>
       </c>
-      <c r="H193" t="inlineStr">
+      <c r="G193" t="inlineStr">
         <is>
           <t>Em Destaque</t>
         </is>
@@ -6582,18 +5669,13 @@
       <c r="D194" t="n">
         <v>6.6</v>
       </c>
-      <c r="E194" t="inlineStr">
-        <is>
-          <t>70%</t>
-        </is>
+      <c r="E194" t="n">
+        <v>0.7</v>
       </c>
       <c r="F194" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="G194" t="n">
         <v>7.25</v>
       </c>
-      <c r="H194" t="inlineStr">
+      <c r="G194" t="inlineStr">
         <is>
           <t>Padrão</t>
         </is>
@@ -6614,18 +5696,13 @@
       <c r="D195" t="n">
         <v>6.2</v>
       </c>
-      <c r="E195" t="inlineStr">
-        <is>
-          <t>50%</t>
-        </is>
+      <c r="E195" t="n">
+        <v>0.5</v>
       </c>
       <c r="F195" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G195" t="n">
         <v>6.25</v>
       </c>
-      <c r="H195" t="inlineStr">
+      <c r="G195" t="inlineStr">
         <is>
           <t>Padrão</t>
         </is>
@@ -6646,18 +5723,13 @@
       <c r="D196" t="n">
         <v>9.1</v>
       </c>
-      <c r="E196" t="inlineStr">
-        <is>
-          <t>95%</t>
-        </is>
+      <c r="E196" t="n">
+        <v>0.95</v>
       </c>
       <c r="F196" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="G196" t="n">
         <v>9</v>
       </c>
-      <c r="H196" t="inlineStr">
+      <c r="G196" t="inlineStr">
         <is>
           <t>Em Destaque</t>
         </is>
@@ -6678,18 +5750,13 @@
       <c r="D197" t="n">
         <v>8.9</v>
       </c>
-      <c r="E197" t="inlineStr">
-        <is>
-          <t>85%</t>
-        </is>
+      <c r="E197" t="n">
+        <v>0.85</v>
       </c>
       <c r="F197" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="G197" t="n">
         <v>8.949999999999999</v>
       </c>
-      <c r="H197" t="inlineStr">
+      <c r="G197" t="inlineStr">
         <is>
           <t>Em Destaque</t>
         </is>
@@ -6710,18 +5777,13 @@
       <c r="D198" t="n">
         <v>7.6</v>
       </c>
-      <c r="E198" t="inlineStr">
-        <is>
-          <t>90%</t>
-        </is>
+      <c r="E198" t="n">
+        <v>0.9</v>
       </c>
       <c r="F198" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="G198" t="n">
         <v>7.5</v>
       </c>
-      <c r="H198" t="inlineStr">
+      <c r="G198" t="inlineStr">
         <is>
           <t>Em Destaque</t>
         </is>
@@ -6742,18 +5804,13 @@
       <c r="D199" t="n">
         <v>8.1</v>
       </c>
-      <c r="E199" t="inlineStr">
-        <is>
-          <t>75%</t>
-        </is>
+      <c r="E199" t="n">
+        <v>0.75</v>
       </c>
       <c r="F199" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="G199" t="n">
         <v>7.85</v>
       </c>
-      <c r="H199" t="inlineStr">
+      <c r="G199" t="inlineStr">
         <is>
           <t>Padrão</t>
         </is>
@@ -6774,18 +5831,13 @@
       <c r="D200" t="n">
         <v>7.7</v>
       </c>
-      <c r="E200" t="inlineStr">
-        <is>
-          <t>80%</t>
-        </is>
+      <c r="E200" t="n">
+        <v>0.8</v>
       </c>
       <c r="F200" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="G200" t="n">
         <v>7.5</v>
       </c>
-      <c r="H200" t="inlineStr">
+      <c r="G200" t="inlineStr">
         <is>
           <t>Em Destaque</t>
         </is>
@@ -6806,18 +5858,13 @@
       <c r="D201" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="E201" t="inlineStr">
-        <is>
-          <t>75%</t>
-        </is>
+      <c r="E201" t="n">
+        <v>0.75</v>
       </c>
       <c r="F201" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="G201" t="n">
         <v>8.081726907630522</v>
       </c>
-      <c r="H201" t="inlineStr">
+      <c r="G201" t="inlineStr">
         <is>
           <t>Padrão</t>
         </is>
@@ -6838,18 +5885,13 @@
       <c r="D202" t="n">
         <v>9.300000000000001</v>
       </c>
-      <c r="E202" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
+      <c r="E202" t="n">
+        <v>1</v>
       </c>
       <c r="F202" t="n">
-        <v>1</v>
-      </c>
-      <c r="G202" t="n">
         <v>9.4</v>
       </c>
-      <c r="H202" t="inlineStr">
+      <c r="G202" t="inlineStr">
         <is>
           <t>Em Destaque</t>
         </is>
@@ -6870,18 +5912,13 @@
       <c r="D203" t="n">
         <v>7.2</v>
       </c>
-      <c r="E203" t="inlineStr">
-        <is>
-          <t>85%</t>
-        </is>
+      <c r="E203" t="n">
+        <v>0.85</v>
       </c>
       <c r="F203" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="G203" t="n">
         <v>6.95</v>
       </c>
-      <c r="H203" t="inlineStr">
+      <c r="G203" t="inlineStr">
         <is>
           <t>Padrão</t>
         </is>
@@ -6902,18 +5939,13 @@
       <c r="D204" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="E204" t="inlineStr">
-        <is>
-          <t>90%</t>
-        </is>
+      <c r="E204" t="n">
+        <v>0.9</v>
       </c>
       <c r="F204" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="G204" t="n">
         <v>8.600000000000001</v>
       </c>
-      <c r="H204" t="inlineStr">
+      <c r="G204" t="inlineStr">
         <is>
           <t>Em Destaque</t>
         </is>
@@ -6934,18 +5966,13 @@
       <c r="D205" t="n">
         <v>7.2</v>
       </c>
-      <c r="E205" t="inlineStr">
-        <is>
-          <t>70%</t>
-        </is>
+      <c r="E205" t="n">
+        <v>0.7</v>
       </c>
       <c r="F205" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="G205" t="n">
         <v>7.5</v>
       </c>
-      <c r="H205" t="inlineStr">
+      <c r="G205" t="inlineStr">
         <is>
           <t>Padrão</t>
         </is>
@@ -6966,14 +5993,13 @@
       <c r="D206" t="n">
         <v>6.4</v>
       </c>
-      <c r="E206" t="inlineStr"/>
+      <c r="E206" t="n">
+        <v>0.8156118143459915</v>
+      </c>
       <c r="F206" t="n">
-        <v>0.8156118143459915</v>
-      </c>
-      <c r="G206" t="n">
         <v>6.300000000000001</v>
       </c>
-      <c r="H206" t="inlineStr">
+      <c r="G206" t="inlineStr">
         <is>
           <t>Padrão</t>
         </is>
@@ -6994,18 +6020,13 @@
       <c r="D207" t="n">
         <v>9.199999999999999</v>
       </c>
-      <c r="E207" t="inlineStr">
-        <is>
-          <t>95%</t>
-        </is>
+      <c r="E207" t="n">
+        <v>0.95</v>
       </c>
       <c r="F207" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="G207" t="n">
         <v>9</v>
       </c>
-      <c r="H207" t="inlineStr">
+      <c r="G207" t="inlineStr">
         <is>
           <t>Em Destaque</t>
         </is>
@@ -7026,18 +6047,13 @@
       <c r="D208" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="E208" t="inlineStr">
-        <is>
-          <t>85%</t>
-        </is>
+      <c r="E208" t="n">
+        <v>0.85</v>
       </c>
       <c r="F208" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="G208" t="n">
         <v>8.949999999999999</v>
       </c>
-      <c r="H208" t="inlineStr">
+      <c r="G208" t="inlineStr">
         <is>
           <t>Em Destaque</t>
         </is>
@@ -7058,18 +6074,13 @@
       <c r="D209" t="n">
         <v>7.5</v>
       </c>
-      <c r="E209" t="inlineStr">
-        <is>
-          <t>90%</t>
-        </is>
+      <c r="E209" t="n">
+        <v>0.9</v>
       </c>
       <c r="F209" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="G209" t="n">
         <v>7.3</v>
       </c>
-      <c r="H209" t="inlineStr">
+      <c r="G209" t="inlineStr">
         <is>
           <t>Em Destaque</t>
         </is>
@@ -7090,18 +6101,13 @@
       <c r="D210" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="E210" t="inlineStr">
-        <is>
-          <t>75%</t>
-        </is>
+      <c r="E210" t="n">
+        <v>0.75</v>
       </c>
       <c r="F210" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="G210" t="n">
         <v>7.6</v>
       </c>
-      <c r="H210" t="inlineStr">
+      <c r="G210" t="inlineStr">
         <is>
           <t>Padrão</t>
         </is>
@@ -7122,18 +6128,13 @@
       <c r="D211" t="n">
         <v>7.9</v>
       </c>
-      <c r="E211" t="inlineStr">
-        <is>
-          <t>80%</t>
-        </is>
+      <c r="E211" t="n">
+        <v>0.8</v>
       </c>
       <c r="F211" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="G211" t="n">
         <v>7.75</v>
       </c>
-      <c r="H211" t="inlineStr">
+      <c r="G211" t="inlineStr">
         <is>
           <t>Em Destaque</t>
         </is>
@@ -7154,18 +6155,13 @@
       <c r="D212" t="n">
         <v>7.5</v>
       </c>
-      <c r="E212" t="inlineStr">
-        <is>
-          <t>75%</t>
-        </is>
+      <c r="E212" t="n">
+        <v>0.75</v>
       </c>
       <c r="F212" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="G212" t="n">
         <v>7.9</v>
       </c>
-      <c r="H212" t="inlineStr">
+      <c r="G212" t="inlineStr">
         <is>
           <t>Padrão</t>
         </is>
@@ -7186,18 +6182,13 @@
       <c r="D213" t="n">
         <v>9.1</v>
       </c>
-      <c r="E213" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
+      <c r="E213" t="n">
+        <v>1</v>
       </c>
       <c r="F213" t="n">
-        <v>1</v>
-      </c>
-      <c r="G213" t="n">
         <v>9.199999999999999</v>
       </c>
-      <c r="H213" t="inlineStr">
+      <c r="G213" t="inlineStr">
         <is>
           <t>Em Destaque</t>
         </is>
@@ -7218,18 +6209,13 @@
       <c r="D214" t="n">
         <v>7</v>
       </c>
-      <c r="E214" t="inlineStr">
-        <is>
-          <t>85%</t>
-        </is>
+      <c r="E214" t="n">
+        <v>0.85</v>
       </c>
       <c r="F214" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="G214" t="n">
         <v>6.95</v>
       </c>
-      <c r="H214" t="inlineStr">
+      <c r="G214" t="inlineStr">
         <is>
           <t>Padrão</t>
         </is>
@@ -7250,18 +6236,13 @@
       <c r="D215" t="n">
         <v>8.699999999999999</v>
       </c>
-      <c r="E215" t="inlineStr">
-        <is>
-          <t>90%</t>
-        </is>
+      <c r="E215" t="n">
+        <v>0.9</v>
       </c>
       <c r="F215" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="G215" t="n">
         <v>8.5</v>
       </c>
-      <c r="H215" t="inlineStr">
+      <c r="G215" t="inlineStr">
         <is>
           <t>Em Destaque</t>
         </is>
@@ -7282,18 +6263,13 @@
       <c r="D216" t="n">
         <v>7.1</v>
       </c>
-      <c r="E216" t="inlineStr">
-        <is>
-          <t>70%</t>
-        </is>
+      <c r="E216" t="n">
+        <v>0.7</v>
       </c>
       <c r="F216" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="G216" t="n">
         <v>7.4</v>
       </c>
-      <c r="H216" t="inlineStr">
+      <c r="G216" t="inlineStr">
         <is>
           <t>Padrão</t>
         </is>
@@ -7314,18 +6290,13 @@
       <c r="D217" t="n">
         <v>6.3</v>
       </c>
-      <c r="E217" t="inlineStr">
-        <is>
-          <t>50%</t>
-        </is>
+      <c r="E217" t="n">
+        <v>0.5</v>
       </c>
       <c r="F217" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G217" t="n">
         <v>6.199999999999999</v>
       </c>
-      <c r="H217" t="inlineStr">
+      <c r="G217" t="inlineStr">
         <is>
           <t>Padrão</t>
         </is>
@@ -7346,18 +6317,13 @@
       <c r="D218" t="n">
         <v>9</v>
       </c>
-      <c r="E218" t="inlineStr">
-        <is>
-          <t>95%</t>
-        </is>
+      <c r="E218" t="n">
+        <v>0.95</v>
       </c>
       <c r="F218" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="G218" t="n">
         <v>8.85</v>
       </c>
-      <c r="H218" t="inlineStr">
+      <c r="G218" t="inlineStr">
         <is>
           <t>Em Destaque</t>
         </is>
@@ -7378,18 +6344,13 @@
       <c r="D219" t="n">
         <v>8.9</v>
       </c>
-      <c r="E219" t="inlineStr">
-        <is>
-          <t>85%</t>
-        </is>
+      <c r="E219" t="n">
+        <v>0.85</v>
       </c>
       <c r="F219" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="G219" t="n">
         <v>9.050000000000001</v>
       </c>
-      <c r="H219" t="inlineStr">
+      <c r="G219" t="inlineStr">
         <is>
           <t>Em Destaque</t>
         </is>
@@ -7410,18 +6371,13 @@
       <c r="D220" t="n">
         <v>7.7</v>
       </c>
-      <c r="E220" t="inlineStr">
-        <is>
-          <t>90%</t>
-        </is>
+      <c r="E220" t="n">
+        <v>0.9</v>
       </c>
       <c r="F220" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="G220" t="n">
         <v>7.6</v>
       </c>
-      <c r="H220" t="inlineStr">
+      <c r="G220" t="inlineStr">
         <is>
           <t>Em Destaque</t>
         </is>
@@ -7442,18 +6398,13 @@
       <c r="D221" t="n">
         <v>8.1</v>
       </c>
-      <c r="E221" t="inlineStr">
-        <is>
-          <t>75%</t>
-        </is>
+      <c r="E221" t="n">
+        <v>0.75</v>
       </c>
       <c r="F221" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="G221" t="n">
         <v>7.65</v>
       </c>
-      <c r="H221" t="inlineStr">
+      <c r="G221" t="inlineStr">
         <is>
           <t>Padrão</t>
         </is>
@@ -7474,18 +6425,13 @@
       <c r="D222" t="n">
         <v>7.8</v>
       </c>
-      <c r="E222" t="inlineStr">
-        <is>
-          <t>80%</t>
-        </is>
+      <c r="E222" t="n">
+        <v>0.8</v>
       </c>
       <c r="F222" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="G222" t="n">
         <v>7.6</v>
       </c>
-      <c r="H222" t="inlineStr">
+      <c r="G222" t="inlineStr">
         <is>
           <t>Em Destaque</t>
         </is>
@@ -7506,18 +6452,13 @@
       <c r="D223" t="n">
         <v>7.4</v>
       </c>
-      <c r="E223" t="inlineStr">
-        <is>
-          <t>75%</t>
-        </is>
+      <c r="E223" t="n">
+        <v>0.75</v>
       </c>
       <c r="F223" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="G223" t="n">
         <v>7.75</v>
       </c>
-      <c r="H223" t="inlineStr">
+      <c r="G223" t="inlineStr">
         <is>
           <t>Padrão</t>
         </is>
@@ -7538,18 +6479,13 @@
       <c r="D224" t="n">
         <v>9.199999999999999</v>
       </c>
-      <c r="E224" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
+      <c r="E224" t="n">
+        <v>1</v>
       </c>
       <c r="F224" t="n">
-        <v>1</v>
-      </c>
-      <c r="G224" t="n">
         <v>9.300000000000001</v>
       </c>
-      <c r="H224" t="inlineStr">
+      <c r="G224" t="inlineStr">
         <is>
           <t>Em Destaque</t>
         </is>
@@ -7570,18 +6506,13 @@
       <c r="D225" t="n">
         <v>7.3</v>
       </c>
-      <c r="E225" t="inlineStr">
-        <is>
-          <t>85%</t>
-        </is>
+      <c r="E225" t="n">
+        <v>0.85</v>
       </c>
       <c r="F225" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="G225" t="n">
         <v>6.949999999999999</v>
       </c>
-      <c r="H225" t="inlineStr">
+      <c r="G225" t="inlineStr">
         <is>
           <t>Padrão</t>
         </is>
@@ -7602,18 +6533,13 @@
       <c r="D226" t="n">
         <v>8.9</v>
       </c>
-      <c r="E226" t="inlineStr">
-        <is>
-          <t>90%</t>
-        </is>
+      <c r="E226" t="n">
+        <v>0.9</v>
       </c>
       <c r="F226" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="G226" t="n">
         <v>8.550000000000001</v>
       </c>
-      <c r="H226" t="inlineStr">
+      <c r="G226" t="inlineStr">
         <is>
           <t>Em Destaque</t>
         </is>
@@ -7634,18 +6560,13 @@
       <c r="D227" t="n">
         <v>6.8</v>
       </c>
-      <c r="E227" t="inlineStr">
-        <is>
-          <t>70%</t>
-        </is>
+      <c r="E227" t="n">
+        <v>0.7</v>
       </c>
       <c r="F227" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="G227" t="n">
         <v>7.449999999999999</v>
       </c>
-      <c r="H227" t="inlineStr">
+      <c r="G227" t="inlineStr">
         <is>
           <t>Padrão</t>
         </is>
@@ -7666,18 +6587,13 @@
       <c r="D228" t="n">
         <v>6.5</v>
       </c>
-      <c r="E228" t="inlineStr">
-        <is>
-          <t>50%</t>
-        </is>
+      <c r="E228" t="n">
+        <v>0.5</v>
       </c>
       <c r="F228" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G228" t="n">
         <v>6.2</v>
       </c>
-      <c r="H228" t="inlineStr">
+      <c r="G228" t="inlineStr">
         <is>
           <t>Padrão</t>
         </is>
@@ -7698,18 +6614,13 @@
       <c r="D229" t="n">
         <v>9.300000000000001</v>
       </c>
-      <c r="E229" t="inlineStr">
-        <is>
-          <t>95%</t>
-        </is>
+      <c r="E229" t="n">
+        <v>0.95</v>
       </c>
       <c r="F229" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="G229" t="n">
         <v>9.199999999999999</v>
       </c>
-      <c r="H229" t="inlineStr">
+      <c r="G229" t="inlineStr">
         <is>
           <t>Em Destaque</t>
         </is>
@@ -7730,18 +6641,13 @@
       <c r="D230" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="E230" t="inlineStr">
-        <is>
-          <t>85%</t>
-        </is>
+      <c r="E230" t="n">
+        <v>0.85</v>
       </c>
       <c r="F230" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="G230" t="n">
         <v>8.850000000000001</v>
       </c>
-      <c r="H230" t="inlineStr">
+      <c r="G230" t="inlineStr">
         <is>
           <t>Em Destaque</t>
         </is>
@@ -7762,18 +6668,13 @@
       <c r="D231" t="n">
         <v>7.8</v>
       </c>
-      <c r="E231" t="inlineStr">
-        <is>
-          <t>90%</t>
-        </is>
+      <c r="E231" t="n">
+        <v>0.9</v>
       </c>
       <c r="F231" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="G231" t="n">
         <v>7.55</v>
       </c>
-      <c r="H231" t="inlineStr">
+      <c r="G231" t="inlineStr">
         <is>
           <t>Em Destaque</t>
         </is>
@@ -7794,18 +6695,13 @@
       <c r="D232" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="E232" t="inlineStr">
-        <is>
-          <t>75%</t>
-        </is>
+      <c r="E232" t="n">
+        <v>0.75</v>
       </c>
       <c r="F232" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="G232" t="n">
         <v>7.850000000000001</v>
       </c>
-      <c r="H232" t="inlineStr">
+      <c r="G232" t="inlineStr">
         <is>
           <t>Padrão</t>
         </is>
@@ -7826,18 +6722,13 @@
       <c r="D233" t="n">
         <v>7.6</v>
       </c>
-      <c r="E233" t="inlineStr">
-        <is>
-          <t>80%</t>
-        </is>
+      <c r="E233" t="n">
+        <v>0.8</v>
       </c>
       <c r="F233" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="G233" t="n">
         <v>7.4</v>
       </c>
-      <c r="H233" t="inlineStr">
+      <c r="G233" t="inlineStr">
         <is>
           <t>Em Destaque</t>
         </is>
@@ -7858,18 +6749,13 @@
       <c r="D234" t="n">
         <v>7.6</v>
       </c>
-      <c r="E234" t="inlineStr">
-        <is>
-          <t>75%</t>
-        </is>
+      <c r="E234" t="n">
+        <v>0.75</v>
       </c>
       <c r="F234" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="G234" t="n">
         <v>8.050000000000001</v>
       </c>
-      <c r="H234" t="inlineStr">
+      <c r="G234" t="inlineStr">
         <is>
           <t>Padrão</t>
         </is>
@@ -7890,18 +6776,13 @@
       <c r="D235" t="n">
         <v>9.4</v>
       </c>
-      <c r="E235" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
+      <c r="E235" t="n">
+        <v>1</v>
       </c>
       <c r="F235" t="n">
-        <v>1</v>
-      </c>
-      <c r="G235" t="n">
         <v>9.550000000000001</v>
       </c>
-      <c r="H235" t="inlineStr">
+      <c r="G235" t="inlineStr">
         <is>
           <t>Em Destaque</t>
         </is>
@@ -7922,18 +6803,13 @@
       <c r="D236" t="n">
         <v>6.9</v>
       </c>
-      <c r="E236" t="inlineStr">
-        <is>
-          <t>80%</t>
-        </is>
+      <c r="E236" t="n">
+        <v>0.8</v>
       </c>
       <c r="F236" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="G236" t="n">
         <v>6.65</v>
       </c>
-      <c r="H236" t="inlineStr">
+      <c r="G236" t="inlineStr">
         <is>
           <t>Padrão</t>
         </is>
@@ -7954,14 +6830,13 @@
       <c r="D237" t="n">
         <v>8.699999999999999</v>
       </c>
-      <c r="E237" t="inlineStr"/>
+      <c r="E237" t="n">
+        <v>0.8156118143459915</v>
+      </c>
       <c r="F237" t="n">
-        <v>0.8156118143459915</v>
-      </c>
-      <c r="G237" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="H237" t="inlineStr">
+      <c r="G237" t="inlineStr">
         <is>
           <t>Em Destaque</t>
         </is>
@@ -7982,18 +6857,13 @@
       <c r="D238" t="n">
         <v>6.9</v>
       </c>
-      <c r="E238" t="inlineStr">
-        <is>
-          <t>70%</t>
-        </is>
+      <c r="E238" t="n">
+        <v>0.7</v>
       </c>
       <c r="F238" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="G238" t="n">
         <v>7.600000000000001</v>
       </c>
-      <c r="H238" t="inlineStr">
+      <c r="G238" t="inlineStr">
         <is>
           <t>Padrão</t>
         </is>
@@ -8014,18 +6884,13 @@
       <c r="D239" t="n">
         <v>6</v>
       </c>
-      <c r="E239" t="inlineStr">
-        <is>
-          <t>50%</t>
-        </is>
+      <c r="E239" t="n">
+        <v>0.5</v>
       </c>
       <c r="F239" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G239" t="n">
         <v>5.85</v>
       </c>
-      <c r="H239" t="inlineStr">
+      <c r="G239" t="inlineStr">
         <is>
           <t>Padrão</t>
         </is>
@@ -8046,18 +6911,13 @@
       <c r="D240" t="n">
         <v>9.5</v>
       </c>
-      <c r="E240" t="inlineStr">
-        <is>
-          <t>95%</t>
-        </is>
+      <c r="E240" t="n">
+        <v>0.95</v>
       </c>
       <c r="F240" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="G240" t="n">
         <v>9.4</v>
       </c>
-      <c r="H240" t="inlineStr">
+      <c r="G240" t="inlineStr">
         <is>
           <t>Em Destaque</t>
         </is>
@@ -8078,18 +6938,13 @@
       <c r="D241" t="n">
         <v>8.699999999999999</v>
       </c>
-      <c r="E241" t="inlineStr">
-        <is>
-          <t>85%</t>
-        </is>
+      <c r="E241" t="n">
+        <v>0.85</v>
       </c>
       <c r="F241" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="G241" t="n">
         <v>8.649999999999999</v>
       </c>
-      <c r="H241" t="inlineStr">
+      <c r="G241" t="inlineStr">
         <is>
           <t>Em Destaque</t>
         </is>
@@ -8110,18 +6965,13 @@
       <c r="D242" t="n">
         <v>7.5</v>
       </c>
-      <c r="E242" t="inlineStr">
-        <is>
-          <t>90%</t>
-        </is>
+      <c r="E242" t="n">
+        <v>0.9</v>
       </c>
       <c r="F242" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="G242" t="n">
         <v>7.6</v>
       </c>
-      <c r="H242" t="inlineStr">
+      <c r="G242" t="inlineStr">
         <is>
           <t>Em Destaque</t>
         </is>
@@ -8142,18 +6992,13 @@
       <c r="D243" t="n">
         <v>8</v>
       </c>
-      <c r="E243" t="inlineStr">
-        <is>
-          <t>75%</t>
-        </is>
+      <c r="E243" t="n">
+        <v>0.75</v>
       </c>
       <c r="F243" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="G243" t="n">
         <v>7.75</v>
       </c>
-      <c r="H243" t="inlineStr">
+      <c r="G243" t="inlineStr">
         <is>
           <t>Padrão</t>
         </is>
@@ -8174,18 +7019,13 @@
       <c r="D244" t="n">
         <v>7.4</v>
       </c>
-      <c r="E244" t="inlineStr">
-        <is>
-          <t>80%</t>
-        </is>
+      <c r="E244" t="n">
+        <v>0.8</v>
       </c>
       <c r="F244" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="G244" t="n">
         <v>7.2</v>
       </c>
-      <c r="H244" t="inlineStr">
+      <c r="G244" t="inlineStr">
         <is>
           <t>Em Destaque</t>
         </is>
@@ -8206,18 +7046,13 @@
       <c r="D245" t="n">
         <v>7.1</v>
       </c>
-      <c r="E245" t="inlineStr">
-        <is>
-          <t>75%</t>
-        </is>
+      <c r="E245" t="n">
+        <v>0.75</v>
       </c>
       <c r="F245" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="G245" t="n">
         <v>7.649999999999999</v>
       </c>
-      <c r="H245" t="inlineStr">
+      <c r="G245" t="inlineStr">
         <is>
           <t>Padrão</t>
         </is>
@@ -8238,18 +7073,13 @@
       <c r="D246" t="n">
         <v>9.800000000000001</v>
       </c>
-      <c r="E246" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
+      <c r="E246" t="n">
+        <v>1</v>
       </c>
       <c r="F246" t="n">
-        <v>1</v>
-      </c>
-      <c r="G246" t="n">
         <v>9.850000000000001</v>
       </c>
-      <c r="H246" t="inlineStr">
+      <c r="G246" t="inlineStr">
         <is>
           <t>Em Destaque</t>
         </is>
@@ -8270,18 +7100,13 @@
       <c r="D247" t="n">
         <v>7.1</v>
       </c>
-      <c r="E247" t="inlineStr">
-        <is>
-          <t>80%</t>
-        </is>
+      <c r="E247" t="n">
+        <v>0.8</v>
       </c>
       <c r="F247" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="G247" t="n">
         <v>6.949999999999999</v>
       </c>
-      <c r="H247" t="inlineStr">
+      <c r="G247" t="inlineStr">
         <is>
           <t>Padrão</t>
         </is>
@@ -8302,14 +7127,13 @@
       <c r="D248" t="n">
         <v>9</v>
       </c>
-      <c r="E248" t="inlineStr"/>
+      <c r="E248" t="n">
+        <v>0.8156118143459915</v>
+      </c>
       <c r="F248" t="n">
-        <v>0.8156118143459915</v>
-      </c>
-      <c r="G248" t="n">
         <v>8.550000000000001</v>
       </c>
-      <c r="H248" t="inlineStr">
+      <c r="G248" t="inlineStr">
         <is>
           <t>Em Destaque</t>
         </is>
@@ -8330,18 +7154,13 @@
       <c r="D249" t="n">
         <v>6.6</v>
       </c>
-      <c r="E249" t="inlineStr">
-        <is>
-          <t>70%</t>
-        </is>
+      <c r="E249" t="n">
+        <v>0.7</v>
       </c>
       <c r="F249" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="G249" t="n">
         <v>7.25</v>
       </c>
-      <c r="H249" t="inlineStr">
+      <c r="G249" t="inlineStr">
         <is>
           <t>Padrão</t>
         </is>
@@ -8362,18 +7181,13 @@
       <c r="D250" t="n">
         <v>6.2</v>
       </c>
-      <c r="E250" t="inlineStr">
-        <is>
-          <t>50%</t>
-        </is>
+      <c r="E250" t="n">
+        <v>0.5</v>
       </c>
       <c r="F250" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G250" t="n">
         <v>6.25</v>
       </c>
-      <c r="H250" t="inlineStr">
+      <c r="G250" t="inlineStr">
         <is>
           <t>Padrão</t>
         </is>
@@ -8394,18 +7208,13 @@
       <c r="D251" t="n">
         <v>9.1</v>
       </c>
-      <c r="E251" t="inlineStr">
-        <is>
-          <t>95%</t>
-        </is>
+      <c r="E251" t="n">
+        <v>0.95</v>
       </c>
       <c r="F251" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="G251" t="n">
         <v>9</v>
       </c>
-      <c r="H251" t="inlineStr">
+      <c r="G251" t="inlineStr">
         <is>
           <t>Em Destaque</t>
         </is>
@@ -8426,18 +7235,13 @@
       <c r="D252" t="n">
         <v>8.9</v>
       </c>
-      <c r="E252" t="inlineStr">
-        <is>
-          <t>85%</t>
-        </is>
+      <c r="E252" t="n">
+        <v>0.85</v>
       </c>
       <c r="F252" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="G252" t="n">
         <v>8.949999999999999</v>
       </c>
-      <c r="H252" t="inlineStr">
+      <c r="G252" t="inlineStr">
         <is>
           <t>Em Destaque</t>
         </is>
@@ -8458,18 +7262,13 @@
       <c r="D253" t="n">
         <v>7.6</v>
       </c>
-      <c r="E253" t="inlineStr">
-        <is>
-          <t>90%</t>
-        </is>
+      <c r="E253" t="n">
+        <v>0.9</v>
       </c>
       <c r="F253" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="G253" t="n">
         <v>7.5</v>
       </c>
-      <c r="H253" t="inlineStr">
+      <c r="G253" t="inlineStr">
         <is>
           <t>Em Destaque</t>
         </is>
@@ -8490,18 +7289,13 @@
       <c r="D254" t="n">
         <v>8.1</v>
       </c>
-      <c r="E254" t="inlineStr">
-        <is>
-          <t>75%</t>
-        </is>
+      <c r="E254" t="n">
+        <v>0.75</v>
       </c>
       <c r="F254" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="G254" t="n">
         <v>7.85</v>
       </c>
-      <c r="H254" t="inlineStr">
+      <c r="G254" t="inlineStr">
         <is>
           <t>Padrão</t>
         </is>
